--- a/Data/EC/NIT-9006902437.xlsx
+++ b/Data/EC/NIT-9006902437.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4ED2DA1B-BDB8-41DF-A0A0-261CDB76EBCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{37A4360C-D244-43D1-940F-E138F5BC9E8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{40AB4B4F-1095-4143-A0B0-AFF4BBEF059C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{FC7ACEDD-B0F7-497D-82EC-41322AA61B74}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1020" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1024" uniqueCount="90">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,19 +65,184 @@
     <t>CC</t>
   </si>
   <si>
+    <t>73164134</t>
+  </si>
+  <si>
+    <t>DAVID JOSE CASTILLO CASTRO</t>
+  </si>
+  <si>
+    <t>1607</t>
+  </si>
+  <si>
+    <t>45526999</t>
+  </si>
+  <si>
+    <t>EVA LUZ NAZARENO RANGEL</t>
+  </si>
+  <si>
+    <t>1606</t>
+  </si>
+  <si>
     <t>1039680096</t>
   </si>
   <si>
     <t>LUIS EDUARDO PINEDA ROMERO</t>
   </si>
   <si>
-    <t>1607</t>
-  </si>
-  <si>
-    <t>73164134</t>
-  </si>
-  <si>
-    <t>DAVID JOSE CASTILLO CASTRO</t>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>1706</t>
+  </si>
+  <si>
+    <t>1705</t>
+  </si>
+  <si>
+    <t>1704</t>
+  </si>
+  <si>
+    <t>1703</t>
+  </si>
+  <si>
+    <t>1702</t>
+  </si>
+  <si>
+    <t>1701</t>
+  </si>
+  <si>
+    <t>1612</t>
+  </si>
+  <si>
+    <t>1611</t>
+  </si>
+  <si>
+    <t>1610</t>
+  </si>
+  <si>
+    <t>1609</t>
+  </si>
+  <si>
+    <t>1608</t>
   </si>
   <si>
     <t>1143386960</t>
@@ -86,28 +251,10 @@
     <t>BRIAN DAVID CASTILLO TORRES</t>
   </si>
   <si>
-    <t>1608</t>
-  </si>
-  <si>
-    <t>1609</t>
-  </si>
-  <si>
-    <t>1610</t>
-  </si>
-  <si>
-    <t>1611</t>
-  </si>
-  <si>
-    <t>1612</t>
-  </si>
-  <si>
-    <t>1701</t>
-  </si>
-  <si>
-    <t>1702</t>
-  </si>
-  <si>
-    <t>1703</t>
+    <t>1047396796</t>
+  </si>
+  <si>
+    <t>RAFAEL ENRIQUE HATUN MELENDEZ</t>
   </si>
   <si>
     <t>1143337886</t>
@@ -122,148 +269,10 @@
     <t>YOLANDA MARGARITA PEREZ PARRA</t>
   </si>
   <si>
-    <t>1704</t>
-  </si>
-  <si>
-    <t>1705</t>
-  </si>
-  <si>
     <t>1047403305</t>
   </si>
   <si>
     <t>KARINA FLOREZ SANCHEZ</t>
-  </si>
-  <si>
-    <t>1706</t>
-  </si>
-  <si>
-    <t>1047396796</t>
-  </si>
-  <si>
-    <t>RAFAEL ENRIQUE HATUN MELENDEZ</t>
-  </si>
-  <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>1708</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2011</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -677,7 +686,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EABB3AD8-A2C4-8B14-1B88-AA25479B8251}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AE2829F-E20D-BA92-84F3-4A2B196A68C9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1028,8 +1037,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96AF2736-E728-4CCF-8B82-B803351BC523}">
-  <dimension ref="B2:J271"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C801BFC-CC0F-40F2-914D-6E1C8E4D1699}">
+  <dimension ref="B2:J272"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -1053,7 +1062,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1098,7 +1107,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1130,12 +1139,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>7458944</v>
+        <v>7486544</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1146,17 +1155,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C13" s="5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F13" s="5">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1183,13 +1192,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1226,13 +1235,13 @@
         <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F17" s="18">
-        <v>27578</v>
+        <v>27600</v>
       </c>
       <c r="G17" s="18">
-        <v>781242</v>
+        <v>0</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1243,16 +1252,16 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F18" s="18">
-        <v>27578</v>
+        <v>23958</v>
       </c>
       <c r="G18" s="18">
         <v>781242</v>
@@ -1266,16 +1275,16 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F19" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G19" s="18">
         <v>781242</v>
@@ -1289,16 +1298,16 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F20" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G20" s="18">
         <v>781242</v>
@@ -1312,16 +1321,16 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F21" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G21" s="18">
         <v>781242</v>
@@ -1335,16 +1344,16 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F22" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G22" s="18">
         <v>781242</v>
@@ -1358,16 +1367,16 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F23" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G23" s="18">
         <v>781242</v>
@@ -1381,16 +1390,16 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F24" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G24" s="18">
         <v>781242</v>
@@ -1404,16 +1413,16 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F25" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G25" s="18">
         <v>781242</v>
@@ -1427,16 +1436,16 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F26" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G26" s="18">
         <v>781242</v>
@@ -1450,16 +1459,16 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="F27" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G27" s="18">
         <v>781242</v>
@@ -1473,16 +1482,16 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F28" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G28" s="18">
         <v>781242</v>
@@ -1496,16 +1505,16 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F29" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G29" s="18">
         <v>781242</v>
@@ -1519,16 +1528,16 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="F30" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G30" s="18">
         <v>781242</v>
@@ -1542,16 +1551,16 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="F31" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G31" s="18">
         <v>781242</v>
@@ -1565,16 +1574,16 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="F32" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G32" s="18">
         <v>781242</v>
@@ -1588,16 +1597,16 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="F33" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G33" s="18">
         <v>781242</v>
@@ -1611,19 +1620,19 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F34" s="18">
-        <v>29520</v>
+        <v>31249</v>
       </c>
       <c r="G34" s="18">
-        <v>738000</v>
+        <v>781242</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
@@ -1634,16 +1643,16 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="F35" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G35" s="18">
         <v>781242</v>
@@ -1657,19 +1666,19 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="F36" s="18">
-        <v>29520</v>
+        <v>31249</v>
       </c>
       <c r="G36" s="18">
-        <v>738000</v>
+        <v>781242</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
@@ -1680,16 +1689,16 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="F37" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G37" s="18">
         <v>781242</v>
@@ -1703,19 +1712,19 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="F38" s="18">
-        <v>29520</v>
+        <v>31249</v>
       </c>
       <c r="G38" s="18">
-        <v>738000</v>
+        <v>781242</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
@@ -1726,16 +1735,16 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="F39" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G39" s="18">
         <v>781242</v>
@@ -1749,19 +1758,19 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="F40" s="18">
-        <v>29520</v>
+        <v>31249</v>
       </c>
       <c r="G40" s="18">
-        <v>738000</v>
+        <v>781242</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
@@ -1772,16 +1781,16 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="F41" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G41" s="18">
         <v>781242</v>
@@ -1795,16 +1804,16 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="F42" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G42" s="18">
         <v>781242</v>
@@ -1818,19 +1827,19 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="F43" s="18">
-        <v>29520</v>
+        <v>31249</v>
       </c>
       <c r="G43" s="18">
-        <v>738000</v>
+        <v>781242</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
@@ -1841,19 +1850,19 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="F44" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G44" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
@@ -1864,13 +1873,13 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="F45" s="18">
         <v>27578</v>
@@ -1887,19 +1896,19 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="F46" s="18">
-        <v>29520</v>
+        <v>27578</v>
       </c>
       <c r="G46" s="18">
-        <v>738000</v>
+        <v>781242</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
@@ -1910,19 +1919,19 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="F47" s="18">
-        <v>29509</v>
+        <v>27578</v>
       </c>
       <c r="G47" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
@@ -1933,13 +1942,13 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="F48" s="18">
         <v>27578</v>
@@ -1956,19 +1965,19 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="F49" s="18">
-        <v>29509</v>
+        <v>27578</v>
       </c>
       <c r="G49" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H49" s="19"/>
       <c r="I49" s="19"/>
@@ -1979,13 +1988,13 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="F50" s="18">
         <v>27578</v>
@@ -2002,13 +2011,13 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="F51" s="18">
         <v>27578</v>
@@ -2025,19 +2034,19 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="F52" s="18">
-        <v>29520</v>
+        <v>27578</v>
       </c>
       <c r="G52" s="18">
-        <v>738000</v>
+        <v>781242</v>
       </c>
       <c r="H52" s="19"/>
       <c r="I52" s="19"/>
@@ -2048,19 +2057,19 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="F53" s="18">
-        <v>29520</v>
+        <v>27578</v>
       </c>
       <c r="G53" s="18">
-        <v>738000</v>
+        <v>781242</v>
       </c>
       <c r="H53" s="19"/>
       <c r="I53" s="19"/>
@@ -2071,19 +2080,19 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="F54" s="18">
-        <v>29509</v>
+        <v>27578</v>
       </c>
       <c r="G54" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H54" s="19"/>
       <c r="I54" s="19"/>
@@ -2094,19 +2103,19 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="F55" s="18">
-        <v>29509</v>
+        <v>27578</v>
       </c>
       <c r="G55" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H55" s="19"/>
       <c r="I55" s="19"/>
@@ -2117,13 +2126,13 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="F56" s="18">
         <v>27578</v>
@@ -2140,19 +2149,19 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="F57" s="18">
-        <v>29520</v>
+        <v>27578</v>
       </c>
       <c r="G57" s="18">
-        <v>738000</v>
+        <v>781242</v>
       </c>
       <c r="H57" s="19"/>
       <c r="I57" s="19"/>
@@ -2163,19 +2172,19 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="F58" s="18">
-        <v>29520</v>
+        <v>27578</v>
       </c>
       <c r="G58" s="18">
-        <v>738000</v>
+        <v>781242</v>
       </c>
       <c r="H58" s="19"/>
       <c r="I58" s="19"/>
@@ -2186,13 +2195,13 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="F59" s="18">
         <v>27578</v>
@@ -2209,19 +2218,19 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="F60" s="18">
-        <v>29509</v>
+        <v>27578</v>
       </c>
       <c r="G60" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H60" s="19"/>
       <c r="I60" s="19"/>
@@ -2232,13 +2241,13 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="F61" s="18">
         <v>27578</v>
@@ -2255,19 +2264,19 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="F62" s="18">
-        <v>29509</v>
+        <v>27578</v>
       </c>
       <c r="G62" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H62" s="19"/>
       <c r="I62" s="19"/>
@@ -2278,13 +2287,13 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="F63" s="18">
         <v>27578</v>
@@ -2301,19 +2310,19 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="F64" s="18">
-        <v>29520</v>
+        <v>27578</v>
       </c>
       <c r="G64" s="18">
-        <v>738000</v>
+        <v>781242</v>
       </c>
       <c r="H64" s="19"/>
       <c r="I64" s="19"/>
@@ -2324,19 +2333,19 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="F65" s="18">
-        <v>29509</v>
+        <v>27578</v>
       </c>
       <c r="G65" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H65" s="19"/>
       <c r="I65" s="19"/>
@@ -2347,19 +2356,19 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="F66" s="18">
-        <v>29520</v>
+        <v>27578</v>
       </c>
       <c r="G66" s="18">
-        <v>738000</v>
+        <v>781242</v>
       </c>
       <c r="H66" s="19"/>
       <c r="I66" s="19"/>
@@ -2370,19 +2379,19 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="F67" s="18">
-        <v>29509</v>
+        <v>27578</v>
       </c>
       <c r="G67" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H67" s="19"/>
       <c r="I67" s="19"/>
@@ -2393,13 +2402,13 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="F68" s="18">
         <v>27578</v>
@@ -2416,19 +2425,19 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="F69" s="18">
-        <v>29520</v>
+        <v>27578</v>
       </c>
       <c r="G69" s="18">
-        <v>738000</v>
+        <v>781242</v>
       </c>
       <c r="H69" s="19"/>
       <c r="I69" s="19"/>
@@ -2439,13 +2448,13 @@
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="F70" s="18">
         <v>27578</v>
@@ -2462,19 +2471,19 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="F71" s="18">
-        <v>29509</v>
+        <v>23958</v>
       </c>
       <c r="G71" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H71" s="19"/>
       <c r="I71" s="19"/>
@@ -2485,16 +2494,16 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="F72" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G72" s="18">
         <v>781242</v>
@@ -2508,19 +2517,19 @@
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="F73" s="18">
-        <v>29520</v>
+        <v>31249</v>
       </c>
       <c r="G73" s="18">
-        <v>738000</v>
+        <v>781242</v>
       </c>
       <c r="H73" s="19"/>
       <c r="I73" s="19"/>
@@ -2531,16 +2540,16 @@
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>9</v>
+        <v>69</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="F74" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G74" s="18">
         <v>781242</v>
@@ -2554,19 +2563,19 @@
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="F75" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G75" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H75" s="19"/>
       <c r="I75" s="19"/>
@@ -2577,19 +2586,19 @@
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="F76" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G76" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H76" s="19"/>
       <c r="I76" s="19"/>
@@ -2600,19 +2609,19 @@
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="F77" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G77" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H77" s="19"/>
       <c r="I77" s="19"/>
@@ -2623,19 +2632,19 @@
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="F78" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G78" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H78" s="19"/>
       <c r="I78" s="19"/>
@@ -2646,16 +2655,16 @@
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>9</v>
+        <v>69</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="F79" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G79" s="18">
         <v>781242</v>
@@ -2669,19 +2678,19 @@
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="D80" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="E80" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D80" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="E80" s="16" t="s">
-        <v>40</v>
-      </c>
       <c r="F80" s="18">
-        <v>29520</v>
+        <v>31249</v>
       </c>
       <c r="G80" s="18">
-        <v>738000</v>
+        <v>781242</v>
       </c>
       <c r="H80" s="19"/>
       <c r="I80" s="19"/>
@@ -2692,19 +2701,19 @@
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>24</v>
+        <v>69</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="F81" s="18">
-        <v>29520</v>
+        <v>31249</v>
       </c>
       <c r="G81" s="18">
-        <v>738000</v>
+        <v>781242</v>
       </c>
       <c r="H81" s="19"/>
       <c r="I81" s="19"/>
@@ -2715,16 +2724,16 @@
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="F82" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G82" s="18">
         <v>781242</v>
@@ -2738,19 +2747,19 @@
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="F83" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G83" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H83" s="19"/>
       <c r="I83" s="19"/>
@@ -2761,16 +2770,16 @@
         <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>9</v>
+        <v>69</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="F84" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G84" s="18">
         <v>781242</v>
@@ -2784,19 +2793,19 @@
         <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="F85" s="18">
-        <v>29520</v>
+        <v>31249</v>
       </c>
       <c r="G85" s="18">
-        <v>738000</v>
+        <v>781242</v>
       </c>
       <c r="H85" s="19"/>
       <c r="I85" s="19"/>
@@ -2807,19 +2816,19 @@
         <v>8</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>24</v>
+        <v>69</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="F86" s="18">
-        <v>29520</v>
+        <v>31249</v>
       </c>
       <c r="G86" s="18">
-        <v>738000</v>
+        <v>781242</v>
       </c>
       <c r="H86" s="19"/>
       <c r="I86" s="19"/>
@@ -2830,19 +2839,19 @@
         <v>8</v>
       </c>
       <c r="C87" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="D87" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="E87" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="D87" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="E87" s="16" t="s">
-        <v>41</v>
-      </c>
       <c r="F87" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G87" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H87" s="19"/>
       <c r="I87" s="19"/>
@@ -2853,16 +2862,16 @@
         <v>8</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F88" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G88" s="18">
         <v>781242</v>
@@ -2876,19 +2885,19 @@
         <v>8</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="F89" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G89" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H89" s="19"/>
       <c r="I89" s="19"/>
@@ -2899,19 +2908,19 @@
         <v>8</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F90" s="18">
-        <v>29520</v>
+        <v>31249</v>
       </c>
       <c r="G90" s="18">
-        <v>738000</v>
+        <v>781242</v>
       </c>
       <c r="H90" s="19"/>
       <c r="I90" s="19"/>
@@ -2922,16 +2931,16 @@
         <v>8</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>9</v>
+        <v>69</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F91" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G91" s="18">
         <v>781242</v>
@@ -2945,19 +2954,19 @@
         <v>8</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>24</v>
+        <v>69</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F92" s="18">
-        <v>29520</v>
+        <v>31249</v>
       </c>
       <c r="G92" s="18">
-        <v>738000</v>
+        <v>781242</v>
       </c>
       <c r="H92" s="19"/>
       <c r="I92" s="19"/>
@@ -2968,16 +2977,16 @@
         <v>8</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F93" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G93" s="18">
         <v>781242</v>
@@ -2991,19 +3000,19 @@
         <v>8</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F94" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G94" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H94" s="19"/>
       <c r="I94" s="19"/>
@@ -3014,19 +3023,19 @@
         <v>8</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F95" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G95" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H95" s="19"/>
       <c r="I95" s="19"/>
@@ -3037,19 +3046,19 @@
         <v>8</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F96" s="18">
-        <v>29520</v>
+        <v>31249</v>
       </c>
       <c r="G96" s="18">
-        <v>738000</v>
+        <v>781242</v>
       </c>
       <c r="H96" s="19"/>
       <c r="I96" s="19"/>
@@ -3060,19 +3069,19 @@
         <v>8</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>24</v>
+        <v>69</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="E97" s="16" t="s">
         <v>43</v>
       </c>
       <c r="F97" s="18">
-        <v>29520</v>
+        <v>31249</v>
       </c>
       <c r="G97" s="18">
-        <v>738000</v>
+        <v>781242</v>
       </c>
       <c r="H97" s="19"/>
       <c r="I97" s="19"/>
@@ -3083,13 +3092,13 @@
         <v>8</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>9</v>
+        <v>69</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F98" s="18">
         <v>27578</v>
@@ -3106,19 +3115,19 @@
         <v>8</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F99" s="18">
-        <v>29509</v>
+        <v>27578</v>
       </c>
       <c r="G99" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H99" s="19"/>
       <c r="I99" s="19"/>
@@ -3129,13 +3138,13 @@
         <v>8</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F100" s="18">
         <v>27578</v>
@@ -3152,19 +3161,19 @@
         <v>8</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>24</v>
+        <v>69</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="E101" s="16" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F101" s="18">
-        <v>29520</v>
+        <v>27578</v>
       </c>
       <c r="G101" s="18">
-        <v>738000</v>
+        <v>781242</v>
       </c>
       <c r="H101" s="19"/>
       <c r="I101" s="19"/>
@@ -3175,19 +3184,19 @@
         <v>8</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="E102" s="16" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F102" s="18">
-        <v>29520</v>
+        <v>27578</v>
       </c>
       <c r="G102" s="18">
-        <v>738000</v>
+        <v>781242</v>
       </c>
       <c r="H102" s="19"/>
       <c r="I102" s="19"/>
@@ -3198,13 +3207,13 @@
         <v>8</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>9</v>
+        <v>69</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="E103" s="16" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F103" s="18">
         <v>27578</v>
@@ -3221,13 +3230,13 @@
         <v>8</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="E104" s="16" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="F104" s="18">
         <v>27578</v>
@@ -3244,19 +3253,19 @@
         <v>8</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="D105" s="17" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="E105" s="16" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="F105" s="18">
-        <v>29509</v>
+        <v>27578</v>
       </c>
       <c r="G105" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H105" s="19"/>
       <c r="I105" s="19"/>
@@ -3267,19 +3276,19 @@
         <v>8</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="E106" s="16" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="F106" s="18">
-        <v>29509</v>
+        <v>27578</v>
       </c>
       <c r="G106" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H106" s="19"/>
       <c r="I106" s="19"/>
@@ -3290,19 +3299,19 @@
         <v>8</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>24</v>
+        <v>69</v>
       </c>
       <c r="D107" s="17" t="s">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="E107" s="16" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="F107" s="18">
-        <v>29520</v>
+        <v>27578</v>
       </c>
       <c r="G107" s="18">
-        <v>738000</v>
+        <v>781242</v>
       </c>
       <c r="H107" s="19"/>
       <c r="I107" s="19"/>
@@ -3313,19 +3322,19 @@
         <v>8</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="D108" s="17" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="E108" s="16" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="F108" s="18">
-        <v>29509</v>
+        <v>27578</v>
       </c>
       <c r="G108" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H108" s="19"/>
       <c r="I108" s="19"/>
@@ -3336,19 +3345,19 @@
         <v>8</v>
       </c>
       <c r="C109" s="16" t="s">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="D109" s="17" t="s">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="E109" s="16" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="F109" s="18">
-        <v>29520</v>
+        <v>27578</v>
       </c>
       <c r="G109" s="18">
-        <v>738000</v>
+        <v>781242</v>
       </c>
       <c r="H109" s="19"/>
       <c r="I109" s="19"/>
@@ -3359,13 +3368,13 @@
         <v>8</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="D110" s="17" t="s">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="E110" s="16" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="F110" s="18">
         <v>27578</v>
@@ -3382,19 +3391,19 @@
         <v>8</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="D111" s="17" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="E111" s="16" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="F111" s="18">
-        <v>29509</v>
+        <v>27578</v>
       </c>
       <c r="G111" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H111" s="19"/>
       <c r="I111" s="19"/>
@@ -3405,13 +3414,13 @@
         <v>8</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>9</v>
+        <v>69</v>
       </c>
       <c r="D112" s="17" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="E112" s="16" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="F112" s="18">
         <v>27578</v>
@@ -3428,19 +3437,19 @@
         <v>8</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="D113" s="17" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="E113" s="16" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="F113" s="18">
-        <v>29509</v>
+        <v>27578</v>
       </c>
       <c r="G113" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H113" s="19"/>
       <c r="I113" s="19"/>
@@ -3451,19 +3460,19 @@
         <v>8</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="D114" s="17" t="s">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="E114" s="16" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="F114" s="18">
-        <v>29520</v>
+        <v>27578</v>
       </c>
       <c r="G114" s="18">
-        <v>738000</v>
+        <v>781242</v>
       </c>
       <c r="H114" s="19"/>
       <c r="I114" s="19"/>
@@ -3474,13 +3483,13 @@
         <v>8</v>
       </c>
       <c r="C115" s="16" t="s">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="D115" s="17" t="s">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="E115" s="16" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="F115" s="18">
         <v>27578</v>
@@ -3497,19 +3506,19 @@
         <v>8</v>
       </c>
       <c r="C116" s="16" t="s">
-        <v>24</v>
+        <v>69</v>
       </c>
       <c r="D116" s="17" t="s">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="E116" s="16" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="F116" s="18">
-        <v>29520</v>
+        <v>27578</v>
       </c>
       <c r="G116" s="18">
-        <v>738000</v>
+        <v>781242</v>
       </c>
       <c r="H116" s="19"/>
       <c r="I116" s="19"/>
@@ -3520,13 +3529,13 @@
         <v>8</v>
       </c>
       <c r="C117" s="16" t="s">
-        <v>9</v>
+        <v>69</v>
       </c>
       <c r="D117" s="17" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="E117" s="16" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="F117" s="18">
         <v>27578</v>
@@ -3543,19 +3552,19 @@
         <v>8</v>
       </c>
       <c r="C118" s="16" t="s">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="D118" s="17" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="E118" s="16" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="F118" s="18">
-        <v>29509</v>
+        <v>27578</v>
       </c>
       <c r="G118" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H118" s="19"/>
       <c r="I118" s="19"/>
@@ -3566,19 +3575,19 @@
         <v>8</v>
       </c>
       <c r="C119" s="16" t="s">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="D119" s="17" t="s">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="E119" s="16" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="F119" s="18">
-        <v>29520</v>
+        <v>27578</v>
       </c>
       <c r="G119" s="18">
-        <v>738000</v>
+        <v>781242</v>
       </c>
       <c r="H119" s="19"/>
       <c r="I119" s="19"/>
@@ -3589,19 +3598,19 @@
         <v>8</v>
       </c>
       <c r="C120" s="16" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="D120" s="17" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="E120" s="16" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="F120" s="18">
-        <v>29509</v>
+        <v>27578</v>
       </c>
       <c r="G120" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H120" s="19"/>
       <c r="I120" s="19"/>
@@ -3612,19 +3621,19 @@
         <v>8</v>
       </c>
       <c r="C121" s="16" t="s">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="D121" s="17" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="E121" s="16" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="F121" s="18">
-        <v>29509</v>
+        <v>27578</v>
       </c>
       <c r="G121" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H121" s="19"/>
       <c r="I121" s="19"/>
@@ -3635,19 +3644,19 @@
         <v>8</v>
       </c>
       <c r="C122" s="16" t="s">
-        <v>24</v>
+        <v>69</v>
       </c>
       <c r="D122" s="17" t="s">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="E122" s="16" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="F122" s="18">
-        <v>29520</v>
+        <v>27578</v>
       </c>
       <c r="G122" s="18">
-        <v>738000</v>
+        <v>781242</v>
       </c>
       <c r="H122" s="19"/>
       <c r="I122" s="19"/>
@@ -3658,13 +3667,13 @@
         <v>8</v>
       </c>
       <c r="C123" s="16" t="s">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="D123" s="17" t="s">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="E123" s="16" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="F123" s="18">
         <v>27578</v>
@@ -3681,19 +3690,19 @@
         <v>8</v>
       </c>
       <c r="C124" s="16" t="s">
-        <v>9</v>
+        <v>71</v>
       </c>
       <c r="D124" s="17" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="E124" s="16" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="F124" s="18">
-        <v>27578</v>
+        <v>23958</v>
       </c>
       <c r="G124" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H124" s="19"/>
       <c r="I124" s="19"/>
@@ -3704,19 +3713,19 @@
         <v>8</v>
       </c>
       <c r="C125" s="16" t="s">
-        <v>9</v>
+        <v>71</v>
       </c>
       <c r="D125" s="17" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="E125" s="16" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="F125" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G125" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H125" s="19"/>
       <c r="I125" s="19"/>
@@ -3727,16 +3736,16 @@
         <v>8</v>
       </c>
       <c r="C126" s="16" t="s">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="D126" s="17" t="s">
-        <v>34</v>
+        <v>72</v>
       </c>
       <c r="E126" s="16" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="F126" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G126" s="18">
         <v>737717</v>
@@ -3750,19 +3759,19 @@
         <v>8</v>
       </c>
       <c r="C127" s="16" t="s">
-        <v>24</v>
+        <v>71</v>
       </c>
       <c r="D127" s="17" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
       <c r="E127" s="16" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="F127" s="18">
-        <v>29520</v>
+        <v>31249</v>
       </c>
       <c r="G127" s="18">
-        <v>738000</v>
+        <v>737717</v>
       </c>
       <c r="H127" s="19"/>
       <c r="I127" s="19"/>
@@ -3773,19 +3782,19 @@
         <v>8</v>
       </c>
       <c r="C128" s="16" t="s">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="D128" s="17" t="s">
-        <v>27</v>
+        <v>72</v>
       </c>
       <c r="E128" s="16" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="F128" s="18">
-        <v>14760</v>
+        <v>31249</v>
       </c>
       <c r="G128" s="18">
-        <v>738000</v>
+        <v>737717</v>
       </c>
       <c r="H128" s="19"/>
       <c r="I128" s="19"/>
@@ -3796,16 +3805,16 @@
         <v>8</v>
       </c>
       <c r="C129" s="16" t="s">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="D129" s="17" t="s">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="E129" s="16" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="F129" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G129" s="18">
         <v>737717</v>
@@ -3819,19 +3828,19 @@
         <v>8</v>
       </c>
       <c r="C130" s="16" t="s">
-        <v>14</v>
+        <v>71</v>
       </c>
       <c r="D130" s="17" t="s">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="E130" s="16" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="F130" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G130" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H130" s="19"/>
       <c r="I130" s="19"/>
@@ -3842,13 +3851,13 @@
         <v>8</v>
       </c>
       <c r="C131" s="16" t="s">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="D131" s="17" t="s">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="E131" s="16" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="F131" s="18">
         <v>31249</v>
@@ -3865,19 +3874,19 @@
         <v>8</v>
       </c>
       <c r="C132" s="16" t="s">
-        <v>9</v>
+        <v>71</v>
       </c>
       <c r="D132" s="17" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="E132" s="16" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="F132" s="18">
         <v>31249</v>
       </c>
       <c r="G132" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H132" s="19"/>
       <c r="I132" s="19"/>
@@ -3888,19 +3897,19 @@
         <v>8</v>
       </c>
       <c r="C133" s="16" t="s">
-        <v>24</v>
+        <v>71</v>
       </c>
       <c r="D133" s="17" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
       <c r="E133" s="16" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="F133" s="18">
         <v>31249</v>
       </c>
       <c r="G133" s="18">
-        <v>738000</v>
+        <v>737717</v>
       </c>
       <c r="H133" s="19"/>
       <c r="I133" s="19"/>
@@ -3911,13 +3920,13 @@
         <v>8</v>
       </c>
       <c r="C134" s="16" t="s">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="D134" s="17" t="s">
-        <v>34</v>
+        <v>72</v>
       </c>
       <c r="E134" s="16" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="F134" s="18">
         <v>31249</v>
@@ -3934,19 +3943,19 @@
         <v>8</v>
       </c>
       <c r="C135" s="16" t="s">
-        <v>14</v>
+        <v>71</v>
       </c>
       <c r="D135" s="17" t="s">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="E135" s="16" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="F135" s="18">
         <v>31249</v>
       </c>
       <c r="G135" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H135" s="19"/>
       <c r="I135" s="19"/>
@@ -3957,19 +3966,19 @@
         <v>8</v>
       </c>
       <c r="C136" s="16" t="s">
-        <v>9</v>
+        <v>71</v>
       </c>
       <c r="D136" s="17" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="E136" s="16" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="F136" s="18">
         <v>31249</v>
       </c>
       <c r="G136" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H136" s="19"/>
       <c r="I136" s="19"/>
@@ -3980,19 +3989,19 @@
         <v>8</v>
       </c>
       <c r="C137" s="16" t="s">
-        <v>14</v>
+        <v>71</v>
       </c>
       <c r="D137" s="17" t="s">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="E137" s="16" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F137" s="18">
         <v>31249</v>
       </c>
       <c r="G137" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H137" s="19"/>
       <c r="I137" s="19"/>
@@ -4003,19 +4012,19 @@
         <v>8</v>
       </c>
       <c r="C138" s="16" t="s">
-        <v>24</v>
+        <v>71</v>
       </c>
       <c r="D138" s="17" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
       <c r="E138" s="16" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="F138" s="18">
         <v>31249</v>
       </c>
       <c r="G138" s="18">
-        <v>738000</v>
+        <v>737717</v>
       </c>
       <c r="H138" s="19"/>
       <c r="I138" s="19"/>
@@ -4026,13 +4035,13 @@
         <v>8</v>
       </c>
       <c r="C139" s="16" t="s">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="D139" s="17" t="s">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="E139" s="16" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="F139" s="18">
         <v>31249</v>
@@ -4049,13 +4058,13 @@
         <v>8</v>
       </c>
       <c r="C140" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D140" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="E140" s="16" t="s">
         <v>33</v>
-      </c>
-      <c r="D140" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="E140" s="16" t="s">
-        <v>50</v>
       </c>
       <c r="F140" s="18">
         <v>31249</v>
@@ -4072,19 +4081,19 @@
         <v>8</v>
       </c>
       <c r="C141" s="16" t="s">
-        <v>9</v>
+        <v>71</v>
       </c>
       <c r="D141" s="17" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="E141" s="16" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="F141" s="18">
         <v>31249</v>
       </c>
       <c r="G141" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H141" s="19"/>
       <c r="I141" s="19"/>
@@ -4095,19 +4104,19 @@
         <v>8</v>
       </c>
       <c r="C142" s="16" t="s">
-        <v>24</v>
+        <v>71</v>
       </c>
       <c r="D142" s="17" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
       <c r="E142" s="16" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="F142" s="18">
         <v>31249</v>
       </c>
       <c r="G142" s="18">
-        <v>738000</v>
+        <v>737717</v>
       </c>
       <c r="H142" s="19"/>
       <c r="I142" s="19"/>
@@ -4118,13 +4127,13 @@
         <v>8</v>
       </c>
       <c r="C143" s="16" t="s">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="D143" s="17" t="s">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="E143" s="16" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="F143" s="18">
         <v>31249</v>
@@ -4141,13 +4150,13 @@
         <v>8</v>
       </c>
       <c r="C144" s="16" t="s">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="D144" s="17" t="s">
-        <v>34</v>
+        <v>72</v>
       </c>
       <c r="E144" s="16" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="F144" s="18">
         <v>31249</v>
@@ -4164,19 +4173,19 @@
         <v>8</v>
       </c>
       <c r="C145" s="16" t="s">
-        <v>14</v>
+        <v>71</v>
       </c>
       <c r="D145" s="17" t="s">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="E145" s="16" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="F145" s="18">
         <v>31249</v>
       </c>
       <c r="G145" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H145" s="19"/>
       <c r="I145" s="19"/>
@@ -4187,13 +4196,13 @@
         <v>8</v>
       </c>
       <c r="C146" s="16" t="s">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="D146" s="17" t="s">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="E146" s="16" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="F146" s="18">
         <v>31249</v>
@@ -4210,19 +4219,19 @@
         <v>8</v>
       </c>
       <c r="C147" s="16" t="s">
-        <v>9</v>
+        <v>71</v>
       </c>
       <c r="D147" s="17" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="E147" s="16" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="F147" s="18">
         <v>31249</v>
       </c>
       <c r="G147" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H147" s="19"/>
       <c r="I147" s="19"/>
@@ -4233,19 +4242,19 @@
         <v>8</v>
       </c>
       <c r="C148" s="16" t="s">
-        <v>14</v>
+        <v>71</v>
       </c>
       <c r="D148" s="17" t="s">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="E148" s="16" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="F148" s="18">
         <v>31249</v>
       </c>
       <c r="G148" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H148" s="19"/>
       <c r="I148" s="19"/>
@@ -4256,13 +4265,13 @@
         <v>8</v>
       </c>
       <c r="C149" s="16" t="s">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="D149" s="17" t="s">
-        <v>34</v>
+        <v>72</v>
       </c>
       <c r="E149" s="16" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F149" s="18">
         <v>31249</v>
@@ -4279,19 +4288,19 @@
         <v>8</v>
       </c>
       <c r="C150" s="16" t="s">
-        <v>24</v>
+        <v>71</v>
       </c>
       <c r="D150" s="17" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
       <c r="E150" s="16" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="F150" s="18">
         <v>31249</v>
       </c>
       <c r="G150" s="18">
-        <v>738000</v>
+        <v>737717</v>
       </c>
       <c r="H150" s="19"/>
       <c r="I150" s="19"/>
@@ -4302,16 +4311,16 @@
         <v>8</v>
       </c>
       <c r="C151" s="16" t="s">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="D151" s="17" t="s">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="E151" s="16" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="F151" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G151" s="18">
         <v>737717</v>
@@ -4325,19 +4334,19 @@
         <v>8</v>
       </c>
       <c r="C152" s="16" t="s">
-        <v>24</v>
+        <v>71</v>
       </c>
       <c r="D152" s="17" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
       <c r="E152" s="16" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="F152" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G152" s="18">
-        <v>738000</v>
+        <v>737717</v>
       </c>
       <c r="H152" s="19"/>
       <c r="I152" s="19"/>
@@ -4348,19 +4357,19 @@
         <v>8</v>
       </c>
       <c r="C153" s="16" t="s">
-        <v>14</v>
+        <v>71</v>
       </c>
       <c r="D153" s="17" t="s">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="E153" s="16" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="F153" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G153" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H153" s="19"/>
       <c r="I153" s="19"/>
@@ -4371,19 +4380,19 @@
         <v>8</v>
       </c>
       <c r="C154" s="16" t="s">
-        <v>9</v>
+        <v>71</v>
       </c>
       <c r="D154" s="17" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="E154" s="16" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F154" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G154" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H154" s="19"/>
       <c r="I154" s="19"/>
@@ -4394,16 +4403,16 @@
         <v>8</v>
       </c>
       <c r="C155" s="16" t="s">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="D155" s="17" t="s">
-        <v>34</v>
+        <v>72</v>
       </c>
       <c r="E155" s="16" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F155" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G155" s="18">
         <v>737717</v>
@@ -4417,19 +4426,19 @@
         <v>8</v>
       </c>
       <c r="C156" s="16" t="s">
-        <v>9</v>
+        <v>71</v>
       </c>
       <c r="D156" s="17" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="E156" s="16" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F156" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G156" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H156" s="19"/>
       <c r="I156" s="19"/>
@@ -4440,19 +4449,19 @@
         <v>8</v>
       </c>
       <c r="C157" s="16" t="s">
-        <v>14</v>
+        <v>71</v>
       </c>
       <c r="D157" s="17" t="s">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="E157" s="16" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F157" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G157" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H157" s="19"/>
       <c r="I157" s="19"/>
@@ -4463,19 +4472,19 @@
         <v>8</v>
       </c>
       <c r="C158" s="16" t="s">
-        <v>24</v>
+        <v>71</v>
       </c>
       <c r="D158" s="17" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
       <c r="E158" s="16" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F158" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G158" s="18">
-        <v>738000</v>
+        <v>737717</v>
       </c>
       <c r="H158" s="19"/>
       <c r="I158" s="19"/>
@@ -4486,16 +4495,16 @@
         <v>8</v>
       </c>
       <c r="C159" s="16" t="s">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="D159" s="17" t="s">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="E159" s="16" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F159" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G159" s="18">
         <v>737717</v>
@@ -4509,16 +4518,16 @@
         <v>8</v>
       </c>
       <c r="C160" s="16" t="s">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="D160" s="17" t="s">
-        <v>34</v>
+        <v>72</v>
       </c>
       <c r="E160" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F160" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G160" s="18">
         <v>737717</v>
@@ -4532,16 +4541,16 @@
         <v>8</v>
       </c>
       <c r="C161" s="16" t="s">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="D161" s="17" t="s">
-        <v>34</v>
+        <v>72</v>
       </c>
       <c r="E161" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F161" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G161" s="18">
         <v>737717</v>
@@ -4555,16 +4564,16 @@
         <v>8</v>
       </c>
       <c r="C162" s="16" t="s">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="D162" s="17" t="s">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="E162" s="16" t="s">
         <v>55</v>
       </c>
       <c r="F162" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G162" s="18">
         <v>737717</v>
@@ -4578,19 +4587,19 @@
         <v>8</v>
       </c>
       <c r="C163" s="16" t="s">
-        <v>14</v>
+        <v>71</v>
       </c>
       <c r="D163" s="17" t="s">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="E163" s="16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F163" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G163" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H163" s="19"/>
       <c r="I163" s="19"/>
@@ -4601,19 +4610,19 @@
         <v>8</v>
       </c>
       <c r="C164" s="16" t="s">
-        <v>9</v>
+        <v>71</v>
       </c>
       <c r="D164" s="17" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="E164" s="16" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F164" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G164" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H164" s="19"/>
       <c r="I164" s="19"/>
@@ -4624,19 +4633,19 @@
         <v>8</v>
       </c>
       <c r="C165" s="16" t="s">
-        <v>24</v>
+        <v>71</v>
       </c>
       <c r="D165" s="17" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
       <c r="E165" s="16" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F165" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G165" s="18">
-        <v>738000</v>
+        <v>737717</v>
       </c>
       <c r="H165" s="19"/>
       <c r="I165" s="19"/>
@@ -4647,19 +4656,19 @@
         <v>8</v>
       </c>
       <c r="C166" s="16" t="s">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="D166" s="17" t="s">
-        <v>31</v>
+        <v>74</v>
       </c>
       <c r="E166" s="16" t="s">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="F166" s="18">
-        <v>31249</v>
+        <v>23958</v>
       </c>
       <c r="G166" s="18">
-        <v>737717</v>
+        <v>738000</v>
       </c>
       <c r="H166" s="19"/>
       <c r="I166" s="19"/>
@@ -4670,19 +4679,19 @@
         <v>8</v>
       </c>
       <c r="C167" s="16" t="s">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="D167" s="17" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="E167" s="16" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="F167" s="18">
         <v>31249</v>
       </c>
       <c r="G167" s="18">
-        <v>737717</v>
+        <v>738000</v>
       </c>
       <c r="H167" s="19"/>
       <c r="I167" s="19"/>
@@ -4693,19 +4702,19 @@
         <v>8</v>
       </c>
       <c r="C168" s="16" t="s">
-        <v>9</v>
+        <v>73</v>
       </c>
       <c r="D168" s="17" t="s">
-        <v>10</v>
+        <v>74</v>
       </c>
       <c r="E168" s="16" t="s">
-        <v>56</v>
+        <v>19</v>
       </c>
       <c r="F168" s="18">
         <v>31249</v>
       </c>
       <c r="G168" s="18">
-        <v>781242</v>
+        <v>738000</v>
       </c>
       <c r="H168" s="19"/>
       <c r="I168" s="19"/>
@@ -4716,19 +4725,19 @@
         <v>8</v>
       </c>
       <c r="C169" s="16" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="D169" s="17" t="s">
-        <v>15</v>
+        <v>74</v>
       </c>
       <c r="E169" s="16" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="F169" s="18">
         <v>31249</v>
       </c>
       <c r="G169" s="18">
-        <v>781242</v>
+        <v>738000</v>
       </c>
       <c r="H169" s="19"/>
       <c r="I169" s="19"/>
@@ -4739,13 +4748,13 @@
         <v>8</v>
       </c>
       <c r="C170" s="16" t="s">
-        <v>24</v>
+        <v>73</v>
       </c>
       <c r="D170" s="17" t="s">
-        <v>25</v>
+        <v>74</v>
       </c>
       <c r="E170" s="16" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="F170" s="18">
         <v>31249</v>
@@ -4762,19 +4771,19 @@
         <v>8</v>
       </c>
       <c r="C171" s="16" t="s">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="D171" s="17" t="s">
-        <v>31</v>
+        <v>74</v>
       </c>
       <c r="E171" s="16" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="F171" s="18">
         <v>31249</v>
       </c>
       <c r="G171" s="18">
-        <v>737717</v>
+        <v>738000</v>
       </c>
       <c r="H171" s="19"/>
       <c r="I171" s="19"/>
@@ -4785,13 +4794,13 @@
         <v>8</v>
       </c>
       <c r="C172" s="16" t="s">
-        <v>24</v>
+        <v>73</v>
       </c>
       <c r="D172" s="17" t="s">
-        <v>25</v>
+        <v>74</v>
       </c>
       <c r="E172" s="16" t="s">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="F172" s="18">
         <v>31249</v>
@@ -4808,19 +4817,19 @@
         <v>8</v>
       </c>
       <c r="C173" s="16" t="s">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="D173" s="17" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="E173" s="16" t="s">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="F173" s="18">
         <v>31249</v>
       </c>
       <c r="G173" s="18">
-        <v>737717</v>
+        <v>738000</v>
       </c>
       <c r="H173" s="19"/>
       <c r="I173" s="19"/>
@@ -4831,19 +4840,19 @@
         <v>8</v>
       </c>
       <c r="C174" s="16" t="s">
-        <v>9</v>
+        <v>73</v>
       </c>
       <c r="D174" s="17" t="s">
-        <v>10</v>
+        <v>74</v>
       </c>
       <c r="E174" s="16" t="s">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="F174" s="18">
         <v>31249</v>
       </c>
       <c r="G174" s="18">
-        <v>781242</v>
+        <v>738000</v>
       </c>
       <c r="H174" s="19"/>
       <c r="I174" s="19"/>
@@ -4854,19 +4863,19 @@
         <v>8</v>
       </c>
       <c r="C175" s="16" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="D175" s="17" t="s">
-        <v>15</v>
+        <v>74</v>
       </c>
       <c r="E175" s="16" t="s">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="F175" s="18">
         <v>31249</v>
       </c>
       <c r="G175" s="18">
-        <v>781242</v>
+        <v>738000</v>
       </c>
       <c r="H175" s="19"/>
       <c r="I175" s="19"/>
@@ -4877,19 +4886,19 @@
         <v>8</v>
       </c>
       <c r="C176" s="16" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="D176" s="17" t="s">
-        <v>15</v>
+        <v>74</v>
       </c>
       <c r="E176" s="16" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="F176" s="18">
         <v>31249</v>
       </c>
       <c r="G176" s="18">
-        <v>781242</v>
+        <v>738000</v>
       </c>
       <c r="H176" s="19"/>
       <c r="I176" s="19"/>
@@ -4900,19 +4909,19 @@
         <v>8</v>
       </c>
       <c r="C177" s="16" t="s">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="D177" s="17" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="E177" s="16" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="F177" s="18">
         <v>31249</v>
       </c>
       <c r="G177" s="18">
-        <v>737717</v>
+        <v>738000</v>
       </c>
       <c r="H177" s="19"/>
       <c r="I177" s="19"/>
@@ -4923,19 +4932,19 @@
         <v>8</v>
       </c>
       <c r="C178" s="16" t="s">
-        <v>9</v>
+        <v>73</v>
       </c>
       <c r="D178" s="17" t="s">
-        <v>10</v>
+        <v>74</v>
       </c>
       <c r="E178" s="16" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="F178" s="18">
         <v>31249</v>
       </c>
       <c r="G178" s="18">
-        <v>781242</v>
+        <v>738000</v>
       </c>
       <c r="H178" s="19"/>
       <c r="I178" s="19"/>
@@ -4946,19 +4955,19 @@
         <v>8</v>
       </c>
       <c r="C179" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="D179" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="E179" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="D179" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="E179" s="16" t="s">
-        <v>58</v>
-      </c>
       <c r="F179" s="18">
         <v>31249</v>
       </c>
       <c r="G179" s="18">
-        <v>737717</v>
+        <v>738000</v>
       </c>
       <c r="H179" s="19"/>
       <c r="I179" s="19"/>
@@ -4969,13 +4978,13 @@
         <v>8</v>
       </c>
       <c r="C180" s="16" t="s">
-        <v>24</v>
+        <v>73</v>
       </c>
       <c r="D180" s="17" t="s">
-        <v>25</v>
+        <v>74</v>
       </c>
       <c r="E180" s="16" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="F180" s="18">
         <v>31249</v>
@@ -4992,19 +5001,19 @@
         <v>8</v>
       </c>
       <c r="C181" s="16" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="D181" s="17" t="s">
-        <v>15</v>
+        <v>74</v>
       </c>
       <c r="E181" s="16" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="F181" s="18">
         <v>31249</v>
       </c>
       <c r="G181" s="18">
-        <v>781242</v>
+        <v>738000</v>
       </c>
       <c r="H181" s="19"/>
       <c r="I181" s="19"/>
@@ -5015,13 +5024,13 @@
         <v>8</v>
       </c>
       <c r="C182" s="16" t="s">
-        <v>24</v>
+        <v>73</v>
       </c>
       <c r="D182" s="17" t="s">
-        <v>25</v>
+        <v>74</v>
       </c>
       <c r="E182" s="16" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="F182" s="18">
         <v>31249</v>
@@ -5038,19 +5047,19 @@
         <v>8</v>
       </c>
       <c r="C183" s="16" t="s">
-        <v>9</v>
+        <v>73</v>
       </c>
       <c r="D183" s="17" t="s">
-        <v>10</v>
+        <v>74</v>
       </c>
       <c r="E183" s="16" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="F183" s="18">
         <v>31249</v>
       </c>
       <c r="G183" s="18">
-        <v>781242</v>
+        <v>738000</v>
       </c>
       <c r="H183" s="19"/>
       <c r="I183" s="19"/>
@@ -5061,19 +5070,19 @@
         <v>8</v>
       </c>
       <c r="C184" s="16" t="s">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="D184" s="17" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="E184" s="16" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="F184" s="18">
         <v>31249</v>
       </c>
       <c r="G184" s="18">
-        <v>737717</v>
+        <v>738000</v>
       </c>
       <c r="H184" s="19"/>
       <c r="I184" s="19"/>
@@ -5084,19 +5093,19 @@
         <v>8</v>
       </c>
       <c r="C185" s="16" t="s">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="D185" s="17" t="s">
-        <v>31</v>
+        <v>74</v>
       </c>
       <c r="E185" s="16" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="F185" s="18">
         <v>31249</v>
       </c>
       <c r="G185" s="18">
-        <v>737717</v>
+        <v>738000</v>
       </c>
       <c r="H185" s="19"/>
       <c r="I185" s="19"/>
@@ -5107,19 +5116,19 @@
         <v>8</v>
       </c>
       <c r="C186" s="16" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="D186" s="17" t="s">
-        <v>15</v>
+        <v>74</v>
       </c>
       <c r="E186" s="16" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="F186" s="18">
         <v>31249</v>
       </c>
       <c r="G186" s="18">
-        <v>781242</v>
+        <v>738000</v>
       </c>
       <c r="H186" s="19"/>
       <c r="I186" s="19"/>
@@ -5130,19 +5139,19 @@
         <v>8</v>
       </c>
       <c r="C187" s="16" t="s">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="D187" s="17" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="E187" s="16" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="F187" s="18">
         <v>31249</v>
       </c>
       <c r="G187" s="18">
-        <v>737717</v>
+        <v>738000</v>
       </c>
       <c r="H187" s="19"/>
       <c r="I187" s="19"/>
@@ -5153,13 +5162,13 @@
         <v>8</v>
       </c>
       <c r="C188" s="16" t="s">
-        <v>24</v>
+        <v>73</v>
       </c>
       <c r="D188" s="17" t="s">
-        <v>25</v>
+        <v>74</v>
       </c>
       <c r="E188" s="16" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="F188" s="18">
         <v>31249</v>
@@ -5176,19 +5185,19 @@
         <v>8</v>
       </c>
       <c r="C189" s="16" t="s">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="D189" s="17" t="s">
-        <v>31</v>
+        <v>74</v>
       </c>
       <c r="E189" s="16" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="F189" s="18">
         <v>31249</v>
       </c>
       <c r="G189" s="18">
-        <v>737717</v>
+        <v>738000</v>
       </c>
       <c r="H189" s="19"/>
       <c r="I189" s="19"/>
@@ -5199,19 +5208,19 @@
         <v>8</v>
       </c>
       <c r="C190" s="16" t="s">
-        <v>9</v>
+        <v>73</v>
       </c>
       <c r="D190" s="17" t="s">
-        <v>10</v>
+        <v>74</v>
       </c>
       <c r="E190" s="16" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="F190" s="18">
         <v>31249</v>
       </c>
       <c r="G190" s="18">
-        <v>781242</v>
+        <v>738000</v>
       </c>
       <c r="H190" s="19"/>
       <c r="I190" s="19"/>
@@ -5222,13 +5231,13 @@
         <v>8</v>
       </c>
       <c r="C191" s="16" t="s">
-        <v>24</v>
+        <v>73</v>
       </c>
       <c r="D191" s="17" t="s">
-        <v>25</v>
+        <v>74</v>
       </c>
       <c r="E191" s="16" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="F191" s="18">
         <v>31249</v>
@@ -5245,19 +5254,19 @@
         <v>8</v>
       </c>
       <c r="C192" s="16" t="s">
-        <v>9</v>
+        <v>73</v>
       </c>
       <c r="D192" s="17" t="s">
-        <v>10</v>
+        <v>74</v>
       </c>
       <c r="E192" s="16" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="F192" s="18">
         <v>31249</v>
       </c>
       <c r="G192" s="18">
-        <v>781242</v>
+        <v>738000</v>
       </c>
       <c r="H192" s="19"/>
       <c r="I192" s="19"/>
@@ -5268,19 +5277,19 @@
         <v>8</v>
       </c>
       <c r="C193" s="16" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="D193" s="17" t="s">
-        <v>15</v>
+        <v>74</v>
       </c>
       <c r="E193" s="16" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="F193" s="18">
-        <v>31249</v>
+        <v>29520</v>
       </c>
       <c r="G193" s="18">
-        <v>781242</v>
+        <v>738000</v>
       </c>
       <c r="H193" s="19"/>
       <c r="I193" s="19"/>
@@ -5291,19 +5300,19 @@
         <v>8</v>
       </c>
       <c r="C194" s="16" t="s">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="D194" s="17" t="s">
-        <v>31</v>
+        <v>74</v>
       </c>
       <c r="E194" s="16" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="F194" s="18">
-        <v>31249</v>
+        <v>29520</v>
       </c>
       <c r="G194" s="18">
-        <v>737717</v>
+        <v>738000</v>
       </c>
       <c r="H194" s="19"/>
       <c r="I194" s="19"/>
@@ -5314,19 +5323,19 @@
         <v>8</v>
       </c>
       <c r="C195" s="16" t="s">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="D195" s="17" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="E195" s="16" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="F195" s="18">
-        <v>31249</v>
+        <v>29520</v>
       </c>
       <c r="G195" s="18">
-        <v>737717</v>
+        <v>738000</v>
       </c>
       <c r="H195" s="19"/>
       <c r="I195" s="19"/>
@@ -5337,16 +5346,16 @@
         <v>8</v>
       </c>
       <c r="C196" s="16" t="s">
-        <v>24</v>
+        <v>73</v>
       </c>
       <c r="D196" s="17" t="s">
-        <v>25</v>
+        <v>74</v>
       </c>
       <c r="E196" s="16" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="F196" s="18">
-        <v>31249</v>
+        <v>29520</v>
       </c>
       <c r="G196" s="18">
         <v>738000</v>
@@ -5360,19 +5369,19 @@
         <v>8</v>
       </c>
       <c r="C197" s="16" t="s">
-        <v>9</v>
+        <v>73</v>
       </c>
       <c r="D197" s="17" t="s">
-        <v>10</v>
+        <v>74</v>
       </c>
       <c r="E197" s="16" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F197" s="18">
-        <v>31249</v>
+        <v>29520</v>
       </c>
       <c r="G197" s="18">
-        <v>781242</v>
+        <v>738000</v>
       </c>
       <c r="H197" s="19"/>
       <c r="I197" s="19"/>
@@ -5383,19 +5392,19 @@
         <v>8</v>
       </c>
       <c r="C198" s="16" t="s">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="D198" s="17" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="E198" s="16" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="F198" s="18">
-        <v>31249</v>
+        <v>29520</v>
       </c>
       <c r="G198" s="18">
-        <v>737717</v>
+        <v>738000</v>
       </c>
       <c r="H198" s="19"/>
       <c r="I198" s="19"/>
@@ -5406,19 +5415,19 @@
         <v>8</v>
       </c>
       <c r="C199" s="16" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="D199" s="17" t="s">
-        <v>15</v>
+        <v>74</v>
       </c>
       <c r="E199" s="16" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="F199" s="18">
-        <v>31249</v>
+        <v>29520</v>
       </c>
       <c r="G199" s="18">
-        <v>781242</v>
+        <v>738000</v>
       </c>
       <c r="H199" s="19"/>
       <c r="I199" s="19"/>
@@ -5429,19 +5438,19 @@
         <v>8</v>
       </c>
       <c r="C200" s="16" t="s">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="D200" s="17" t="s">
-        <v>31</v>
+        <v>74</v>
       </c>
       <c r="E200" s="16" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="F200" s="18">
-        <v>31249</v>
+        <v>29520</v>
       </c>
       <c r="G200" s="18">
-        <v>737717</v>
+        <v>738000</v>
       </c>
       <c r="H200" s="19"/>
       <c r="I200" s="19"/>
@@ -5452,19 +5461,19 @@
         <v>8</v>
       </c>
       <c r="C201" s="16" t="s">
-        <v>9</v>
+        <v>73</v>
       </c>
       <c r="D201" s="17" t="s">
-        <v>10</v>
+        <v>74</v>
       </c>
       <c r="E201" s="16" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="F201" s="18">
-        <v>31249</v>
+        <v>29520</v>
       </c>
       <c r="G201" s="18">
-        <v>781242</v>
+        <v>738000</v>
       </c>
       <c r="H201" s="19"/>
       <c r="I201" s="19"/>
@@ -5475,16 +5484,16 @@
         <v>8</v>
       </c>
       <c r="C202" s="16" t="s">
-        <v>24</v>
+        <v>73</v>
       </c>
       <c r="D202" s="17" t="s">
-        <v>25</v>
+        <v>74</v>
       </c>
       <c r="E202" s="16" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="F202" s="18">
-        <v>31249</v>
+        <v>29520</v>
       </c>
       <c r="G202" s="18">
         <v>738000</v>
@@ -5498,19 +5507,19 @@
         <v>8</v>
       </c>
       <c r="C203" s="16" t="s">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="D203" s="17" t="s">
-        <v>31</v>
+        <v>74</v>
       </c>
       <c r="E203" s="16" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="F203" s="18">
-        <v>31249</v>
+        <v>29520</v>
       </c>
       <c r="G203" s="18">
-        <v>737717</v>
+        <v>738000</v>
       </c>
       <c r="H203" s="19"/>
       <c r="I203" s="19"/>
@@ -5521,19 +5530,19 @@
         <v>8</v>
       </c>
       <c r="C204" s="16" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="D204" s="17" t="s">
-        <v>15</v>
+        <v>74</v>
       </c>
       <c r="E204" s="16" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F204" s="18">
-        <v>31249</v>
+        <v>29520</v>
       </c>
       <c r="G204" s="18">
-        <v>781242</v>
+        <v>738000</v>
       </c>
       <c r="H204" s="19"/>
       <c r="I204" s="19"/>
@@ -5544,19 +5553,19 @@
         <v>8</v>
       </c>
       <c r="C205" s="16" t="s">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="D205" s="17" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="E205" s="16" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F205" s="18">
-        <v>31249</v>
+        <v>29520</v>
       </c>
       <c r="G205" s="18">
-        <v>737717</v>
+        <v>738000</v>
       </c>
       <c r="H205" s="19"/>
       <c r="I205" s="19"/>
@@ -5567,19 +5576,19 @@
         <v>8</v>
       </c>
       <c r="C206" s="16" t="s">
-        <v>9</v>
+        <v>73</v>
       </c>
       <c r="D206" s="17" t="s">
-        <v>10</v>
+        <v>74</v>
       </c>
       <c r="E206" s="16" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F206" s="18">
-        <v>31249</v>
+        <v>29520</v>
       </c>
       <c r="G206" s="18">
-        <v>781242</v>
+        <v>738000</v>
       </c>
       <c r="H206" s="19"/>
       <c r="I206" s="19"/>
@@ -5590,19 +5599,19 @@
         <v>8</v>
       </c>
       <c r="C207" s="16" t="s">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="D207" s="17" t="s">
-        <v>31</v>
+        <v>74</v>
       </c>
       <c r="E207" s="16" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F207" s="18">
-        <v>31249</v>
+        <v>29520</v>
       </c>
       <c r="G207" s="18">
-        <v>737717</v>
+        <v>738000</v>
       </c>
       <c r="H207" s="19"/>
       <c r="I207" s="19"/>
@@ -5613,19 +5622,19 @@
         <v>8</v>
       </c>
       <c r="C208" s="16" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="D208" s="17" t="s">
-        <v>15</v>
+        <v>76</v>
       </c>
       <c r="E208" s="16" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="F208" s="18">
-        <v>31249</v>
+        <v>14760</v>
       </c>
       <c r="G208" s="18">
-        <v>781242</v>
+        <v>738000</v>
       </c>
       <c r="H208" s="19"/>
       <c r="I208" s="19"/>
@@ -5636,16 +5645,16 @@
         <v>8</v>
       </c>
       <c r="C209" s="16" t="s">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="D209" s="17" t="s">
-        <v>25</v>
+        <v>76</v>
       </c>
       <c r="E209" s="16" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="F209" s="18">
-        <v>31249</v>
+        <v>29520</v>
       </c>
       <c r="G209" s="18">
         <v>738000</v>
@@ -5659,19 +5668,19 @@
         <v>8</v>
       </c>
       <c r="C210" s="16" t="s">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="D210" s="17" t="s">
-        <v>34</v>
+        <v>76</v>
       </c>
       <c r="E210" s="16" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="F210" s="18">
-        <v>31249</v>
+        <v>29520</v>
       </c>
       <c r="G210" s="18">
-        <v>737717</v>
+        <v>738000</v>
       </c>
       <c r="H210" s="19"/>
       <c r="I210" s="19"/>
@@ -5682,16 +5691,16 @@
         <v>8</v>
       </c>
       <c r="C211" s="16" t="s">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="D211" s="17" t="s">
-        <v>25</v>
+        <v>76</v>
       </c>
       <c r="E211" s="16" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="F211" s="18">
-        <v>31249</v>
+        <v>29520</v>
       </c>
       <c r="G211" s="18">
         <v>738000</v>
@@ -5705,19 +5714,19 @@
         <v>8</v>
       </c>
       <c r="C212" s="16" t="s">
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="D212" s="17" t="s">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="E212" s="16" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="F212" s="18">
-        <v>31249</v>
+        <v>29520</v>
       </c>
       <c r="G212" s="18">
-        <v>781242</v>
+        <v>738000</v>
       </c>
       <c r="H212" s="19"/>
       <c r="I212" s="19"/>
@@ -5728,19 +5737,19 @@
         <v>8</v>
       </c>
       <c r="C213" s="16" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="D213" s="17" t="s">
-        <v>31</v>
+        <v>76</v>
       </c>
       <c r="E213" s="16" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="F213" s="18">
-        <v>31249</v>
+        <v>29520</v>
       </c>
       <c r="G213" s="18">
-        <v>737717</v>
+        <v>738000</v>
       </c>
       <c r="H213" s="19"/>
       <c r="I213" s="19"/>
@@ -5751,19 +5760,19 @@
         <v>8</v>
       </c>
       <c r="C214" s="16" t="s">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="D214" s="17" t="s">
-        <v>34</v>
+        <v>76</v>
       </c>
       <c r="E214" s="16" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="F214" s="18">
-        <v>31249</v>
+        <v>29520</v>
       </c>
       <c r="G214" s="18">
-        <v>737717</v>
+        <v>738000</v>
       </c>
       <c r="H214" s="19"/>
       <c r="I214" s="19"/>
@@ -5774,19 +5783,19 @@
         <v>8</v>
       </c>
       <c r="C215" s="16" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="D215" s="17" t="s">
-        <v>15</v>
+        <v>76</v>
       </c>
       <c r="E215" s="16" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="F215" s="18">
-        <v>31249</v>
+        <v>29520</v>
       </c>
       <c r="G215" s="18">
-        <v>781242</v>
+        <v>738000</v>
       </c>
       <c r="H215" s="19"/>
       <c r="I215" s="19"/>
@@ -5797,19 +5806,19 @@
         <v>8</v>
       </c>
       <c r="C216" s="16" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="D216" s="17" t="s">
-        <v>31</v>
+        <v>76</v>
       </c>
       <c r="E216" s="16" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="F216" s="18">
-        <v>31249</v>
+        <v>29520</v>
       </c>
       <c r="G216" s="18">
-        <v>737717</v>
+        <v>738000</v>
       </c>
       <c r="H216" s="19"/>
       <c r="I216" s="19"/>
@@ -5820,16 +5829,16 @@
         <v>8</v>
       </c>
       <c r="C217" s="16" t="s">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="D217" s="17" t="s">
-        <v>25</v>
+        <v>76</v>
       </c>
       <c r="E217" s="16" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="F217" s="18">
-        <v>31249</v>
+        <v>29520</v>
       </c>
       <c r="G217" s="18">
         <v>738000</v>
@@ -5843,19 +5852,19 @@
         <v>8</v>
       </c>
       <c r="C218" s="16" t="s">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="D218" s="17" t="s">
-        <v>34</v>
+        <v>76</v>
       </c>
       <c r="E218" s="16" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="F218" s="18">
-        <v>31249</v>
+        <v>29520</v>
       </c>
       <c r="G218" s="18">
-        <v>737717</v>
+        <v>738000</v>
       </c>
       <c r="H218" s="19"/>
       <c r="I218" s="19"/>
@@ -5866,19 +5875,19 @@
         <v>8</v>
       </c>
       <c r="C219" s="16" t="s">
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="D219" s="17" t="s">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="E219" s="16" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="F219" s="18">
-        <v>31249</v>
+        <v>29520</v>
       </c>
       <c r="G219" s="18">
-        <v>781242</v>
+        <v>738000</v>
       </c>
       <c r="H219" s="19"/>
       <c r="I219" s="19"/>
@@ -5889,19 +5898,19 @@
         <v>8</v>
       </c>
       <c r="C220" s="16" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="D220" s="17" t="s">
-        <v>15</v>
+        <v>76</v>
       </c>
       <c r="E220" s="16" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="F220" s="18">
-        <v>31249</v>
+        <v>29520</v>
       </c>
       <c r="G220" s="18">
-        <v>781242</v>
+        <v>738000</v>
       </c>
       <c r="H220" s="19"/>
       <c r="I220" s="19"/>
@@ -5912,16 +5921,16 @@
         <v>8</v>
       </c>
       <c r="C221" s="16" t="s">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="D221" s="17" t="s">
-        <v>25</v>
+        <v>76</v>
       </c>
       <c r="E221" s="16" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="F221" s="18">
-        <v>31249</v>
+        <v>29520</v>
       </c>
       <c r="G221" s="18">
         <v>738000</v>
@@ -5935,19 +5944,19 @@
         <v>8</v>
       </c>
       <c r="C222" s="16" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="D222" s="17" t="s">
-        <v>15</v>
+        <v>76</v>
       </c>
       <c r="E222" s="16" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="F222" s="18">
-        <v>31249</v>
+        <v>29520</v>
       </c>
       <c r="G222" s="18">
-        <v>781242</v>
+        <v>738000</v>
       </c>
       <c r="H222" s="19"/>
       <c r="I222" s="19"/>
@@ -5958,19 +5967,19 @@
         <v>8</v>
       </c>
       <c r="C223" s="16" t="s">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="D223" s="17" t="s">
-        <v>34</v>
+        <v>76</v>
       </c>
       <c r="E223" s="16" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="F223" s="18">
-        <v>31249</v>
+        <v>29520</v>
       </c>
       <c r="G223" s="18">
-        <v>737717</v>
+        <v>738000</v>
       </c>
       <c r="H223" s="19"/>
       <c r="I223" s="19"/>
@@ -5981,19 +5990,19 @@
         <v>8</v>
       </c>
       <c r="C224" s="16" t="s">
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="D224" s="17" t="s">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="E224" s="16" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="F224" s="18">
-        <v>31249</v>
+        <v>29520</v>
       </c>
       <c r="G224" s="18">
-        <v>781242</v>
+        <v>738000</v>
       </c>
       <c r="H224" s="19"/>
       <c r="I224" s="19"/>
@@ -6004,16 +6013,16 @@
         <v>8</v>
       </c>
       <c r="C225" s="16" t="s">
-        <v>30</v>
+        <v>77</v>
       </c>
       <c r="D225" s="17" t="s">
-        <v>31</v>
+        <v>78</v>
       </c>
       <c r="E225" s="16" t="s">
-        <v>67</v>
+        <v>17</v>
       </c>
       <c r="F225" s="18">
-        <v>31249</v>
+        <v>23958</v>
       </c>
       <c r="G225" s="18">
         <v>737717</v>
@@ -6027,19 +6036,19 @@
         <v>8</v>
       </c>
       <c r="C226" s="16" t="s">
-        <v>24</v>
+        <v>77</v>
       </c>
       <c r="D226" s="17" t="s">
-        <v>25</v>
+        <v>78</v>
       </c>
       <c r="E226" s="16" t="s">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="F226" s="18">
         <v>31249</v>
       </c>
       <c r="G226" s="18">
-        <v>738000</v>
+        <v>737717</v>
       </c>
       <c r="H226" s="19"/>
       <c r="I226" s="19"/>
@@ -6050,13 +6059,13 @@
         <v>8</v>
       </c>
       <c r="C227" s="16" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="D227" s="17" t="s">
-        <v>34</v>
+        <v>78</v>
       </c>
       <c r="E227" s="16" t="s">
-        <v>68</v>
+        <v>19</v>
       </c>
       <c r="F227" s="18">
         <v>31249</v>
@@ -6073,13 +6082,13 @@
         <v>8</v>
       </c>
       <c r="C228" s="16" t="s">
-        <v>30</v>
+        <v>77</v>
       </c>
       <c r="D228" s="17" t="s">
-        <v>31</v>
+        <v>78</v>
       </c>
       <c r="E228" s="16" t="s">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="F228" s="18">
         <v>31249</v>
@@ -6096,19 +6105,19 @@
         <v>8</v>
       </c>
       <c r="C229" s="16" t="s">
-        <v>14</v>
+        <v>77</v>
       </c>
       <c r="D229" s="17" t="s">
-        <v>15</v>
+        <v>78</v>
       </c>
       <c r="E229" s="16" t="s">
-        <v>68</v>
+        <v>21</v>
       </c>
       <c r="F229" s="18">
         <v>31249</v>
       </c>
       <c r="G229" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H229" s="19"/>
       <c r="I229" s="19"/>
@@ -6119,19 +6128,19 @@
         <v>8</v>
       </c>
       <c r="C230" s="16" t="s">
-        <v>9</v>
+        <v>77</v>
       </c>
       <c r="D230" s="17" t="s">
-        <v>10</v>
+        <v>78</v>
       </c>
       <c r="E230" s="16" t="s">
-        <v>68</v>
+        <v>22</v>
       </c>
       <c r="F230" s="18">
         <v>31249</v>
       </c>
       <c r="G230" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H230" s="19"/>
       <c r="I230" s="19"/>
@@ -6142,19 +6151,19 @@
         <v>8</v>
       </c>
       <c r="C231" s="16" t="s">
-        <v>9</v>
+        <v>77</v>
       </c>
       <c r="D231" s="17" t="s">
-        <v>10</v>
+        <v>78</v>
       </c>
       <c r="E231" s="16" t="s">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="F231" s="18">
         <v>31249</v>
       </c>
       <c r="G231" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H231" s="19"/>
       <c r="I231" s="19"/>
@@ -6165,19 +6174,19 @@
         <v>8</v>
       </c>
       <c r="C232" s="16" t="s">
-        <v>14</v>
+        <v>77</v>
       </c>
       <c r="D232" s="17" t="s">
-        <v>15</v>
+        <v>78</v>
       </c>
       <c r="E232" s="16" t="s">
-        <v>69</v>
+        <v>24</v>
       </c>
       <c r="F232" s="18">
         <v>31249</v>
       </c>
       <c r="G232" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H232" s="19"/>
       <c r="I232" s="19"/>
@@ -6188,13 +6197,13 @@
         <v>8</v>
       </c>
       <c r="C233" s="16" t="s">
-        <v>30</v>
+        <v>77</v>
       </c>
       <c r="D233" s="17" t="s">
-        <v>31</v>
+        <v>78</v>
       </c>
       <c r="E233" s="16" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="F233" s="18">
         <v>31249</v>
@@ -6211,13 +6220,13 @@
         <v>8</v>
       </c>
       <c r="C234" s="16" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="D234" s="17" t="s">
-        <v>34</v>
+        <v>78</v>
       </c>
       <c r="E234" s="16" t="s">
-        <v>69</v>
+        <v>26</v>
       </c>
       <c r="F234" s="18">
         <v>31249</v>
@@ -6234,19 +6243,19 @@
         <v>8</v>
       </c>
       <c r="C235" s="16" t="s">
-        <v>24</v>
+        <v>77</v>
       </c>
       <c r="D235" s="17" t="s">
-        <v>25</v>
+        <v>78</v>
       </c>
       <c r="E235" s="16" t="s">
-        <v>69</v>
+        <v>27</v>
       </c>
       <c r="F235" s="18">
         <v>31249</v>
       </c>
       <c r="G235" s="18">
-        <v>738000</v>
+        <v>737717</v>
       </c>
       <c r="H235" s="19"/>
       <c r="I235" s="19"/>
@@ -6257,13 +6266,13 @@
         <v>8</v>
       </c>
       <c r="C236" s="16" t="s">
-        <v>30</v>
+        <v>77</v>
       </c>
       <c r="D236" s="17" t="s">
-        <v>31</v>
+        <v>78</v>
       </c>
       <c r="E236" s="16" t="s">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="F236" s="18">
         <v>31249</v>
@@ -6280,19 +6289,19 @@
         <v>8</v>
       </c>
       <c r="C237" s="16" t="s">
-        <v>24</v>
+        <v>77</v>
       </c>
       <c r="D237" s="17" t="s">
-        <v>25</v>
+        <v>78</v>
       </c>
       <c r="E237" s="16" t="s">
-        <v>70</v>
+        <v>29</v>
       </c>
       <c r="F237" s="18">
         <v>31249</v>
       </c>
       <c r="G237" s="18">
-        <v>738000</v>
+        <v>737717</v>
       </c>
       <c r="H237" s="19"/>
       <c r="I237" s="19"/>
@@ -6303,19 +6312,19 @@
         <v>8</v>
       </c>
       <c r="C238" s="16" t="s">
-        <v>14</v>
+        <v>77</v>
       </c>
       <c r="D238" s="17" t="s">
-        <v>15</v>
+        <v>78</v>
       </c>
       <c r="E238" s="16" t="s">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="F238" s="18">
         <v>31249</v>
       </c>
       <c r="G238" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H238" s="19"/>
       <c r="I238" s="19"/>
@@ -6326,13 +6335,13 @@
         <v>8</v>
       </c>
       <c r="C239" s="16" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="D239" s="17" t="s">
-        <v>34</v>
+        <v>78</v>
       </c>
       <c r="E239" s="16" t="s">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="F239" s="18">
         <v>31249</v>
@@ -6349,19 +6358,19 @@
         <v>8</v>
       </c>
       <c r="C240" s="16" t="s">
-        <v>9</v>
+        <v>77</v>
       </c>
       <c r="D240" s="17" t="s">
-        <v>10</v>
+        <v>78</v>
       </c>
       <c r="E240" s="16" t="s">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="F240" s="18">
         <v>31249</v>
       </c>
       <c r="G240" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H240" s="19"/>
       <c r="I240" s="19"/>
@@ -6372,19 +6381,19 @@
         <v>8</v>
       </c>
       <c r="C241" s="16" t="s">
-        <v>9</v>
+        <v>77</v>
       </c>
       <c r="D241" s="17" t="s">
-        <v>10</v>
+        <v>78</v>
       </c>
       <c r="E241" s="16" t="s">
-        <v>71</v>
+        <v>33</v>
       </c>
       <c r="F241" s="18">
         <v>31249</v>
       </c>
       <c r="G241" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H241" s="19"/>
       <c r="I241" s="19"/>
@@ -6395,19 +6404,19 @@
         <v>8</v>
       </c>
       <c r="C242" s="16" t="s">
-        <v>14</v>
+        <v>77</v>
       </c>
       <c r="D242" s="17" t="s">
-        <v>15</v>
+        <v>78</v>
       </c>
       <c r="E242" s="16" t="s">
-        <v>71</v>
+        <v>34</v>
       </c>
       <c r="F242" s="18">
         <v>31249</v>
       </c>
       <c r="G242" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H242" s="19"/>
       <c r="I242" s="19"/>
@@ -6418,13 +6427,13 @@
         <v>8</v>
       </c>
       <c r="C243" s="16" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="D243" s="17" t="s">
-        <v>34</v>
+        <v>78</v>
       </c>
       <c r="E243" s="16" t="s">
-        <v>71</v>
+        <v>35</v>
       </c>
       <c r="F243" s="18">
         <v>31249</v>
@@ -6441,19 +6450,19 @@
         <v>8</v>
       </c>
       <c r="C244" s="16" t="s">
-        <v>24</v>
+        <v>77</v>
       </c>
       <c r="D244" s="17" t="s">
-        <v>25</v>
+        <v>78</v>
       </c>
       <c r="E244" s="16" t="s">
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="F244" s="18">
         <v>31249</v>
       </c>
       <c r="G244" s="18">
-        <v>738000</v>
+        <v>737717</v>
       </c>
       <c r="H244" s="19"/>
       <c r="I244" s="19"/>
@@ -6464,13 +6473,13 @@
         <v>8</v>
       </c>
       <c r="C245" s="16" t="s">
-        <v>30</v>
+        <v>77</v>
       </c>
       <c r="D245" s="17" t="s">
-        <v>31</v>
+        <v>78</v>
       </c>
       <c r="E245" s="16" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="F245" s="18">
         <v>31249</v>
@@ -6487,13 +6496,13 @@
         <v>8</v>
       </c>
       <c r="C246" s="16" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="D246" s="17" t="s">
-        <v>34</v>
+        <v>78</v>
       </c>
       <c r="E246" s="16" t="s">
-        <v>72</v>
+        <v>38</v>
       </c>
       <c r="F246" s="18">
         <v>31249</v>
@@ -6510,19 +6519,19 @@
         <v>8</v>
       </c>
       <c r="C247" s="16" t="s">
-        <v>9</v>
+        <v>77</v>
       </c>
       <c r="D247" s="17" t="s">
-        <v>10</v>
+        <v>78</v>
       </c>
       <c r="E247" s="16" t="s">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="F247" s="18">
         <v>31249</v>
       </c>
       <c r="G247" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H247" s="19"/>
       <c r="I247" s="19"/>
@@ -6533,19 +6542,19 @@
         <v>8</v>
       </c>
       <c r="C248" s="16" t="s">
-        <v>24</v>
+        <v>77</v>
       </c>
       <c r="D248" s="17" t="s">
-        <v>25</v>
+        <v>78</v>
       </c>
       <c r="E248" s="16" t="s">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="F248" s="18">
         <v>31249</v>
       </c>
       <c r="G248" s="18">
-        <v>738000</v>
+        <v>737717</v>
       </c>
       <c r="H248" s="19"/>
       <c r="I248" s="19"/>
@@ -6556,13 +6565,13 @@
         <v>8</v>
       </c>
       <c r="C249" s="16" t="s">
-        <v>30</v>
+        <v>77</v>
       </c>
       <c r="D249" s="17" t="s">
-        <v>31</v>
+        <v>78</v>
       </c>
       <c r="E249" s="16" t="s">
-        <v>72</v>
+        <v>41</v>
       </c>
       <c r="F249" s="18">
         <v>31249</v>
@@ -6579,19 +6588,19 @@
         <v>8</v>
       </c>
       <c r="C250" s="16" t="s">
-        <v>14</v>
+        <v>77</v>
       </c>
       <c r="D250" s="17" t="s">
-        <v>15</v>
+        <v>78</v>
       </c>
       <c r="E250" s="16" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="F250" s="18">
         <v>31249</v>
       </c>
       <c r="G250" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H250" s="19"/>
       <c r="I250" s="19"/>
@@ -6602,13 +6611,13 @@
         <v>8</v>
       </c>
       <c r="C251" s="16" t="s">
-        <v>30</v>
+        <v>77</v>
       </c>
       <c r="D251" s="17" t="s">
-        <v>31</v>
+        <v>78</v>
       </c>
       <c r="E251" s="16" t="s">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="F251" s="18">
         <v>31249</v>
@@ -6625,19 +6634,19 @@
         <v>8</v>
       </c>
       <c r="C252" s="16" t="s">
-        <v>14</v>
+        <v>77</v>
       </c>
       <c r="D252" s="17" t="s">
-        <v>15</v>
+        <v>78</v>
       </c>
       <c r="E252" s="16" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="F252" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G252" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H252" s="19"/>
       <c r="I252" s="19"/>
@@ -6648,19 +6657,19 @@
         <v>8</v>
       </c>
       <c r="C253" s="16" t="s">
-        <v>9</v>
+        <v>77</v>
       </c>
       <c r="D253" s="17" t="s">
-        <v>10</v>
+        <v>78</v>
       </c>
       <c r="E253" s="16" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="F253" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G253" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H253" s="19"/>
       <c r="I253" s="19"/>
@@ -6671,16 +6680,16 @@
         <v>8</v>
       </c>
       <c r="C254" s="16" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="D254" s="17" t="s">
-        <v>34</v>
+        <v>78</v>
       </c>
       <c r="E254" s="16" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="F254" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G254" s="18">
         <v>737717</v>
@@ -6694,19 +6703,19 @@
         <v>8</v>
       </c>
       <c r="C255" s="16" t="s">
-        <v>24</v>
+        <v>77</v>
       </c>
       <c r="D255" s="17" t="s">
-        <v>25</v>
+        <v>78</v>
       </c>
       <c r="E255" s="16" t="s">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="F255" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G255" s="18">
-        <v>738000</v>
+        <v>737717</v>
       </c>
       <c r="H255" s="19"/>
       <c r="I255" s="19"/>
@@ -6717,19 +6726,19 @@
         <v>8</v>
       </c>
       <c r="C256" s="16" t="s">
-        <v>9</v>
+        <v>77</v>
       </c>
       <c r="D256" s="17" t="s">
-        <v>10</v>
+        <v>78</v>
       </c>
       <c r="E256" s="16" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="F256" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G256" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H256" s="19"/>
       <c r="I256" s="19"/>
@@ -6740,19 +6749,19 @@
         <v>8</v>
       </c>
       <c r="C257" s="16" t="s">
-        <v>14</v>
+        <v>77</v>
       </c>
       <c r="D257" s="17" t="s">
-        <v>15</v>
+        <v>78</v>
       </c>
       <c r="E257" s="16" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="F257" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G257" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H257" s="19"/>
       <c r="I257" s="19"/>
@@ -6763,19 +6772,19 @@
         <v>8</v>
       </c>
       <c r="C258" s="16" t="s">
-        <v>24</v>
+        <v>77</v>
       </c>
       <c r="D258" s="17" t="s">
-        <v>25</v>
+        <v>78</v>
       </c>
       <c r="E258" s="16" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="F258" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G258" s="18">
-        <v>738000</v>
+        <v>737717</v>
       </c>
       <c r="H258" s="19"/>
       <c r="I258" s="19"/>
@@ -6786,16 +6795,16 @@
         <v>8</v>
       </c>
       <c r="C259" s="16" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="D259" s="17" t="s">
-        <v>34</v>
+        <v>78</v>
       </c>
       <c r="E259" s="16" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="F259" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G259" s="18">
         <v>737717</v>
@@ -6809,16 +6818,16 @@
         <v>8</v>
       </c>
       <c r="C260" s="16" t="s">
-        <v>30</v>
+        <v>77</v>
       </c>
       <c r="D260" s="17" t="s">
-        <v>31</v>
+        <v>78</v>
       </c>
       <c r="E260" s="16" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="F260" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G260" s="18">
         <v>737717</v>
@@ -6832,16 +6841,16 @@
         <v>8</v>
       </c>
       <c r="C261" s="16" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="D261" s="17" t="s">
-        <v>34</v>
+        <v>78</v>
       </c>
       <c r="E261" s="16" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="F261" s="18">
-        <v>23958</v>
+        <v>29509</v>
       </c>
       <c r="G261" s="18">
         <v>737717</v>
@@ -6855,19 +6864,19 @@
         <v>8</v>
       </c>
       <c r="C262" s="16" t="s">
-        <v>9</v>
+        <v>77</v>
       </c>
       <c r="D262" s="17" t="s">
-        <v>10</v>
+        <v>78</v>
       </c>
       <c r="E262" s="16" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="F262" s="18">
-        <v>23958</v>
+        <v>29509</v>
       </c>
       <c r="G262" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H262" s="19"/>
       <c r="I262" s="19"/>
@@ -6878,19 +6887,19 @@
         <v>8</v>
       </c>
       <c r="C263" s="16" t="s">
-        <v>24</v>
+        <v>77</v>
       </c>
       <c r="D263" s="17" t="s">
-        <v>25</v>
+        <v>78</v>
       </c>
       <c r="E263" s="16" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="F263" s="18">
-        <v>23958</v>
+        <v>29509</v>
       </c>
       <c r="G263" s="18">
-        <v>738000</v>
+        <v>737717</v>
       </c>
       <c r="H263" s="19"/>
       <c r="I263" s="19"/>
@@ -6901,75 +6910,98 @@
         <v>8</v>
       </c>
       <c r="C264" s="16" t="s">
-        <v>14</v>
+        <v>77</v>
       </c>
       <c r="D264" s="17" t="s">
-        <v>15</v>
+        <v>78</v>
       </c>
       <c r="E264" s="16" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="F264" s="18">
-        <v>23958</v>
+        <v>29509</v>
       </c>
       <c r="G264" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H264" s="19"/>
       <c r="I264" s="19"/>
       <c r="J264" s="20"/>
     </row>
     <row r="265" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B265" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C265" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="D265" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="E265" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="F265" s="24">
-        <v>23958</v>
-      </c>
-      <c r="G265" s="24">
-        <v>737717</v>
-      </c>
-      <c r="H265" s="25"/>
-      <c r="I265" s="25"/>
-      <c r="J265" s="26"/>
-    </row>
-    <row r="270" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B270" s="32" t="s">
-        <v>85</v>
-      </c>
-      <c r="C270" s="32"/>
-      <c r="H270" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="I270" s="1"/>
-      <c r="J270" s="1"/>
+      <c r="B265" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C265" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="D265" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="E265" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="F265" s="18">
+        <v>29509</v>
+      </c>
+      <c r="G265" s="18">
+        <v>737717</v>
+      </c>
+      <c r="H265" s="19"/>
+      <c r="I265" s="19"/>
+      <c r="J265" s="20"/>
+    </row>
+    <row r="266" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B266" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C266" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="D266" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="E266" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="F266" s="24">
+        <v>29509</v>
+      </c>
+      <c r="G266" s="24">
+        <v>737717</v>
+      </c>
+      <c r="H266" s="25"/>
+      <c r="I266" s="25"/>
+      <c r="J266" s="26"/>
     </row>
     <row r="271" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B271" s="32" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C271" s="32"/>
       <c r="H271" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I271" s="1"/>
       <c r="J271" s="1"/>
     </row>
+    <row r="272" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B272" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="C272" s="32"/>
+      <c r="H272" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="I272" s="1"/>
+      <c r="J272" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B272:C272"/>
     <mergeCell ref="B271:C271"/>
-    <mergeCell ref="B270:C270"/>
+    <mergeCell ref="H272:J272"/>
     <mergeCell ref="H271:J271"/>
-    <mergeCell ref="H270:J270"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-9006902437.xlsx
+++ b/Data/EC/NIT-9006902437.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{37A4360C-D244-43D1-940F-E138F5BC9E8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{92DA69FD-CAB8-46E2-A397-1618967859FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{FC7ACEDD-B0F7-497D-82EC-41322AA61B74}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{F4BAAF41-89DA-43E9-9BC5-7A8B5C9CB41B}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1024" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1020" uniqueCount="87">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -74,205 +74,196 @@
     <t>1607</t>
   </si>
   <si>
-    <t>45526999</t>
-  </si>
-  <si>
-    <t>EVA LUZ NAZARENO RANGEL</t>
-  </si>
-  <si>
-    <t>1606</t>
-  </si>
-  <si>
     <t>1039680096</t>
   </si>
   <si>
     <t>LUIS EDUARDO PINEDA ROMERO</t>
   </si>
   <si>
+    <t>1143386960</t>
+  </si>
+  <si>
+    <t>BRIAN DAVID CASTILLO TORRES</t>
+  </si>
+  <si>
+    <t>1608</t>
+  </si>
+  <si>
+    <t>1609</t>
+  </si>
+  <si>
+    <t>1610</t>
+  </si>
+  <si>
+    <t>1611</t>
+  </si>
+  <si>
+    <t>1612</t>
+  </si>
+  <si>
+    <t>1701</t>
+  </si>
+  <si>
+    <t>1702</t>
+  </si>
+  <si>
+    <t>1703</t>
+  </si>
+  <si>
+    <t>1143337886</t>
+  </si>
+  <si>
+    <t>MARCELA PAOLA SIERRA LOPEZ</t>
+  </si>
+  <si>
+    <t>1704</t>
+  </si>
+  <si>
+    <t>1143368277</t>
+  </si>
+  <si>
+    <t>YOLANDA MARGARITA PEREZ PARRA</t>
+  </si>
+  <si>
+    <t>1705</t>
+  </si>
+  <si>
+    <t>1706</t>
+  </si>
+  <si>
+    <t>1047396796</t>
+  </si>
+  <si>
+    <t>RAFAEL ENRIQUE HATUN MELENDEZ</t>
+  </si>
+  <si>
+    <t>1047403305</t>
+  </si>
+  <si>
+    <t>KARINA FLOREZ SANCHEZ</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
     <t>2011</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1708</t>
-  </si>
-  <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>1706</t>
-  </si>
-  <si>
-    <t>1705</t>
-  </si>
-  <si>
-    <t>1704</t>
-  </si>
-  <si>
-    <t>1703</t>
-  </si>
-  <si>
-    <t>1702</t>
-  </si>
-  <si>
-    <t>1701</t>
-  </si>
-  <si>
-    <t>1612</t>
-  </si>
-  <si>
-    <t>1611</t>
-  </si>
-  <si>
-    <t>1610</t>
-  </si>
-  <si>
-    <t>1609</t>
-  </si>
-  <si>
-    <t>1608</t>
-  </si>
-  <si>
-    <t>1143386960</t>
-  </si>
-  <si>
-    <t>BRIAN DAVID CASTILLO TORRES</t>
-  </si>
-  <si>
-    <t>1047396796</t>
-  </si>
-  <si>
-    <t>RAFAEL ENRIQUE HATUN MELENDEZ</t>
-  </si>
-  <si>
-    <t>1143337886</t>
-  </si>
-  <si>
-    <t>MARCELA PAOLA SIERRA LOPEZ</t>
-  </si>
-  <si>
-    <t>1143368277</t>
-  </si>
-  <si>
-    <t>YOLANDA MARGARITA PEREZ PARRA</t>
-  </si>
-  <si>
-    <t>1047403305</t>
-  </si>
-  <si>
-    <t>KARINA FLOREZ SANCHEZ</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -371,7 +362,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -384,9 +377,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -586,23 +577,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -630,10 +621,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -686,7 +677,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AE2829F-E20D-BA92-84F3-4A2B196A68C9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B2CD435-3A46-6E7F-D590-F02CF20FA584}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1037,8 +1028,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C801BFC-CC0F-40F2-914D-6E1C8E4D1699}">
-  <dimension ref="B2:J272"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7CED749-0588-4D50-8D06-04E5AA963F33}">
+  <dimension ref="B2:J271"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -1062,7 +1053,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1107,7 +1098,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1139,12 +1130,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>7486544</v>
+        <v>7458944</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1155,17 +1146,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C13" s="5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F13" s="5">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1192,13 +1183,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1235,13 +1226,13 @@
         <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F17" s="18">
-        <v>27600</v>
+        <v>27578</v>
       </c>
       <c r="G17" s="18">
-        <v>0</v>
+        <v>781242</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1252,16 +1243,16 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="17" t="s">
-        <v>16</v>
-      </c>
       <c r="E18" s="16" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F18" s="18">
-        <v>23958</v>
+        <v>27578</v>
       </c>
       <c r="G18" s="18">
         <v>781242</v>
@@ -1275,16 +1266,16 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D19" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="E19" s="16" t="s">
-        <v>18</v>
-      </c>
       <c r="F19" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G19" s="18">
         <v>781242</v>
@@ -1298,16 +1289,16 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="17" t="s">
+      <c r="E20" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="E20" s="16" t="s">
-        <v>19</v>
-      </c>
       <c r="F20" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G20" s="18">
         <v>781242</v>
@@ -1321,16 +1312,16 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F21" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G21" s="18">
         <v>781242</v>
@@ -1344,16 +1335,16 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D22" s="17" t="s">
-        <v>16</v>
-      </c>
       <c r="E22" s="16" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F22" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G22" s="18">
         <v>781242</v>
@@ -1367,16 +1358,16 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F23" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G23" s="18">
         <v>781242</v>
@@ -1390,16 +1381,16 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D24" s="17" t="s">
-        <v>16</v>
-      </c>
       <c r="E24" s="16" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F24" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G24" s="18">
         <v>781242</v>
@@ -1413,16 +1404,16 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F25" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G25" s="18">
         <v>781242</v>
@@ -1436,16 +1427,16 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D26" s="17" t="s">
-        <v>16</v>
-      </c>
       <c r="E26" s="16" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F26" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G26" s="18">
         <v>781242</v>
@@ -1459,16 +1450,16 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F27" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G27" s="18">
         <v>781242</v>
@@ -1482,16 +1473,16 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D28" s="17" t="s">
-        <v>16</v>
-      </c>
       <c r="E28" s="16" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="F28" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G28" s="18">
         <v>781242</v>
@@ -1505,16 +1496,16 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="F29" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G29" s="18">
         <v>781242</v>
@@ -1528,16 +1519,16 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D30" s="17" t="s">
-        <v>16</v>
-      </c>
       <c r="E30" s="16" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="F30" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G30" s="18">
         <v>781242</v>
@@ -1551,16 +1542,16 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F31" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G31" s="18">
         <v>781242</v>
@@ -1574,16 +1565,16 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D32" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D32" s="17" t="s">
-        <v>16</v>
-      </c>
       <c r="E32" s="16" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="F32" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G32" s="18">
         <v>781242</v>
@@ -1597,16 +1588,16 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="F33" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G33" s="18">
         <v>781242</v>
@@ -1620,16 +1611,16 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D34" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D34" s="17" t="s">
-        <v>16</v>
-      </c>
       <c r="E34" s="16" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F34" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G34" s="18">
         <v>781242</v>
@@ -1643,16 +1634,16 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="F35" s="18">
-        <v>31249</v>
+        <v>29520</v>
       </c>
       <c r="G35" s="18">
         <v>781242</v>
@@ -1666,16 +1657,16 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="F36" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G36" s="18">
         <v>781242</v>
@@ -1689,16 +1680,16 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D37" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D37" s="17" t="s">
-        <v>16</v>
-      </c>
       <c r="E37" s="16" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="F37" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G37" s="18">
         <v>781242</v>
@@ -1712,16 +1703,16 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="F38" s="18">
-        <v>31249</v>
+        <v>29520</v>
       </c>
       <c r="G38" s="18">
         <v>781242</v>
@@ -1735,19 +1726,19 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="F39" s="18">
-        <v>31249</v>
+        <v>29520</v>
       </c>
       <c r="G39" s="18">
-        <v>781242</v>
+        <v>738000</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
@@ -1758,16 +1749,16 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="F40" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G40" s="18">
         <v>781242</v>
@@ -1781,16 +1772,16 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D41" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D41" s="17" t="s">
-        <v>16</v>
-      </c>
       <c r="E41" s="16" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="F41" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G41" s="18">
         <v>781242</v>
@@ -1804,16 +1795,16 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="F42" s="18">
-        <v>31249</v>
+        <v>29520</v>
       </c>
       <c r="G42" s="18">
         <v>781242</v>
@@ -1827,19 +1818,19 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="F43" s="18">
-        <v>31249</v>
+        <v>29520</v>
       </c>
       <c r="G43" s="18">
-        <v>781242</v>
+        <v>738000</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
@@ -1850,16 +1841,16 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="F44" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G44" s="18">
         <v>781242</v>
@@ -1873,13 +1864,13 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D45" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D45" s="17" t="s">
-        <v>16</v>
-      </c>
       <c r="E45" s="16" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="F45" s="18">
         <v>27578</v>
@@ -1896,16 +1887,16 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="F46" s="18">
-        <v>27578</v>
+        <v>29509</v>
       </c>
       <c r="G46" s="18">
         <v>781242</v>
@@ -1919,19 +1910,19 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="F47" s="18">
-        <v>27578</v>
+        <v>29520</v>
       </c>
       <c r="G47" s="18">
-        <v>781242</v>
+        <v>738000</v>
       </c>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
@@ -1942,16 +1933,16 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="F48" s="18">
-        <v>27578</v>
+        <v>29509</v>
       </c>
       <c r="G48" s="18">
         <v>781242</v>
@@ -1965,13 +1956,13 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="F49" s="18">
         <v>27578</v>
@@ -1988,13 +1979,13 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D50" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D50" s="17" t="s">
-        <v>16</v>
-      </c>
       <c r="E50" s="16" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="F50" s="18">
         <v>27578</v>
@@ -2011,16 +2002,16 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="F51" s="18">
-        <v>27578</v>
+        <v>29509</v>
       </c>
       <c r="G51" s="18">
         <v>781242</v>
@@ -2034,16 +2025,16 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="F52" s="18">
-        <v>27578</v>
+        <v>29520</v>
       </c>
       <c r="G52" s="18">
         <v>781242</v>
@@ -2057,19 +2048,19 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="F53" s="18">
-        <v>27578</v>
+        <v>29520</v>
       </c>
       <c r="G53" s="18">
-        <v>781242</v>
+        <v>738000</v>
       </c>
       <c r="H53" s="19"/>
       <c r="I53" s="19"/>
@@ -2080,16 +2071,16 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="F54" s="18">
-        <v>27578</v>
+        <v>29509</v>
       </c>
       <c r="G54" s="18">
         <v>781242</v>
@@ -2103,13 +2094,13 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="F55" s="18">
         <v>27578</v>
@@ -2126,13 +2117,13 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D56" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D56" s="17" t="s">
-        <v>16</v>
-      </c>
       <c r="E56" s="16" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="F56" s="18">
         <v>27578</v>
@@ -2149,16 +2140,16 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="F57" s="18">
-        <v>27578</v>
+        <v>29509</v>
       </c>
       <c r="G57" s="18">
         <v>781242</v>
@@ -2172,16 +2163,16 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="F58" s="18">
-        <v>27578</v>
+        <v>29520</v>
       </c>
       <c r="G58" s="18">
         <v>781242</v>
@@ -2195,19 +2186,19 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="F59" s="18">
-        <v>27578</v>
+        <v>29520</v>
       </c>
       <c r="G59" s="18">
-        <v>781242</v>
+        <v>738000</v>
       </c>
       <c r="H59" s="19"/>
       <c r="I59" s="19"/>
@@ -2218,16 +2209,16 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="F60" s="18">
-        <v>27578</v>
+        <v>29509</v>
       </c>
       <c r="G60" s="18">
         <v>781242</v>
@@ -2241,13 +2232,13 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="F61" s="18">
         <v>27578</v>
@@ -2264,13 +2255,13 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D62" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D62" s="17" t="s">
-        <v>16</v>
-      </c>
       <c r="E62" s="16" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="F62" s="18">
         <v>27578</v>
@@ -2287,16 +2278,16 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="F63" s="18">
-        <v>27578</v>
+        <v>29509</v>
       </c>
       <c r="G63" s="18">
         <v>781242</v>
@@ -2310,16 +2301,16 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="F64" s="18">
-        <v>27578</v>
+        <v>29520</v>
       </c>
       <c r="G64" s="18">
         <v>781242</v>
@@ -2333,19 +2324,19 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="F65" s="18">
-        <v>27578</v>
+        <v>29520</v>
       </c>
       <c r="G65" s="18">
-        <v>781242</v>
+        <v>738000</v>
       </c>
       <c r="H65" s="19"/>
       <c r="I65" s="19"/>
@@ -2356,16 +2347,16 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="F66" s="18">
-        <v>27578</v>
+        <v>29509</v>
       </c>
       <c r="G66" s="18">
         <v>781242</v>
@@ -2379,13 +2370,13 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="F67" s="18">
         <v>27578</v>
@@ -2402,13 +2393,13 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D68" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D68" s="17" t="s">
-        <v>16</v>
-      </c>
       <c r="E68" s="16" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="F68" s="18">
         <v>27578</v>
@@ -2425,16 +2416,16 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="F69" s="18">
-        <v>27578</v>
+        <v>29509</v>
       </c>
       <c r="G69" s="18">
         <v>781242</v>
@@ -2448,19 +2439,19 @@
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="F70" s="18">
-        <v>27578</v>
+        <v>29520</v>
       </c>
       <c r="G70" s="18">
-        <v>781242</v>
+        <v>738000</v>
       </c>
       <c r="H70" s="19"/>
       <c r="I70" s="19"/>
@@ -2471,16 +2462,16 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="F71" s="18">
-        <v>23958</v>
+        <v>29509</v>
       </c>
       <c r="G71" s="18">
         <v>781242</v>
@@ -2494,16 +2485,16 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="F72" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G72" s="18">
         <v>781242</v>
@@ -2517,16 +2508,16 @@
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>69</v>
+        <v>14</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="F73" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G73" s="18">
         <v>781242</v>
@@ -2540,16 +2531,16 @@
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="F74" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G74" s="18">
         <v>781242</v>
@@ -2563,19 +2554,19 @@
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>69</v>
+        <v>27</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="F75" s="18">
-        <v>31249</v>
+        <v>29520</v>
       </c>
       <c r="G75" s="18">
-        <v>781242</v>
+        <v>738000</v>
       </c>
       <c r="H75" s="19"/>
       <c r="I75" s="19"/>
@@ -2586,16 +2577,16 @@
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="F76" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G76" s="18">
         <v>781242</v>
@@ -2609,16 +2600,16 @@
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="F77" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G77" s="18">
         <v>781242</v>
@@ -2632,16 +2623,16 @@
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>69</v>
+        <v>14</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="F78" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G78" s="18">
         <v>781242</v>
@@ -2655,16 +2646,16 @@
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="F79" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G79" s="18">
         <v>781242</v>
@@ -2678,16 +2669,16 @@
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>69</v>
+        <v>24</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="F80" s="18">
-        <v>31249</v>
+        <v>29520</v>
       </c>
       <c r="G80" s="18">
         <v>781242</v>
@@ -2701,19 +2692,19 @@
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>69</v>
+        <v>27</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="F81" s="18">
-        <v>31249</v>
+        <v>29520</v>
       </c>
       <c r="G81" s="18">
-        <v>781242</v>
+        <v>738000</v>
       </c>
       <c r="H81" s="19"/>
       <c r="I81" s="19"/>
@@ -2724,16 +2715,16 @@
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="F82" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G82" s="18">
         <v>781242</v>
@@ -2747,16 +2738,16 @@
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="F83" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G83" s="18">
         <v>781242</v>
@@ -2770,16 +2761,16 @@
         <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>69</v>
+        <v>14</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="F84" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G84" s="18">
         <v>781242</v>
@@ -2793,16 +2784,16 @@
         <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="F85" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G85" s="18">
         <v>781242</v>
@@ -2816,16 +2807,16 @@
         <v>8</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>69</v>
+        <v>24</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="F86" s="18">
-        <v>31249</v>
+        <v>29520</v>
       </c>
       <c r="G86" s="18">
         <v>781242</v>
@@ -2839,19 +2830,19 @@
         <v>8</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>69</v>
+        <v>27</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="F87" s="18">
-        <v>31249</v>
+        <v>29520</v>
       </c>
       <c r="G87" s="18">
-        <v>781242</v>
+        <v>738000</v>
       </c>
       <c r="H87" s="19"/>
       <c r="I87" s="19"/>
@@ -2862,16 +2853,16 @@
         <v>8</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="F88" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G88" s="18">
         <v>781242</v>
@@ -2885,16 +2876,16 @@
         <v>8</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="F89" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G89" s="18">
         <v>781242</v>
@@ -2908,16 +2899,16 @@
         <v>8</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>69</v>
+        <v>14</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F90" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G90" s="18">
         <v>781242</v>
@@ -2931,16 +2922,16 @@
         <v>8</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F91" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G91" s="18">
         <v>781242</v>
@@ -2954,16 +2945,16 @@
         <v>8</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>69</v>
+        <v>24</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F92" s="18">
-        <v>31249</v>
+        <v>29520</v>
       </c>
       <c r="G92" s="18">
         <v>781242</v>
@@ -2977,19 +2968,19 @@
         <v>8</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>69</v>
+        <v>27</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F93" s="18">
-        <v>31249</v>
+        <v>29520</v>
       </c>
       <c r="G93" s="18">
-        <v>781242</v>
+        <v>738000</v>
       </c>
       <c r="H93" s="19"/>
       <c r="I93" s="19"/>
@@ -3000,16 +2991,16 @@
         <v>8</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F94" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G94" s="18">
         <v>781242</v>
@@ -3023,16 +3014,16 @@
         <v>8</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F95" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G95" s="18">
         <v>781242</v>
@@ -3046,16 +3037,16 @@
         <v>8</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>69</v>
+        <v>14</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F96" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G96" s="18">
         <v>781242</v>
@@ -3069,16 +3060,16 @@
         <v>8</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="E97" s="16" t="s">
         <v>43</v>
       </c>
       <c r="F97" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G97" s="18">
         <v>781242</v>
@@ -3092,16 +3083,16 @@
         <v>8</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>69</v>
+        <v>24</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F98" s="18">
-        <v>27578</v>
+        <v>29520</v>
       </c>
       <c r="G98" s="18">
         <v>781242</v>
@@ -3115,19 +3106,19 @@
         <v>8</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>69</v>
+        <v>27</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F99" s="18">
-        <v>27578</v>
+        <v>29520</v>
       </c>
       <c r="G99" s="18">
-        <v>781242</v>
+        <v>738000</v>
       </c>
       <c r="H99" s="19"/>
       <c r="I99" s="19"/>
@@ -3138,16 +3129,16 @@
         <v>8</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F100" s="18">
-        <v>27578</v>
+        <v>29509</v>
       </c>
       <c r="G100" s="18">
         <v>781242</v>
@@ -3161,13 +3152,13 @@
         <v>8</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="E101" s="16" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F101" s="18">
         <v>27578</v>
@@ -3184,13 +3175,13 @@
         <v>8</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>69</v>
+        <v>14</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="E102" s="16" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F102" s="18">
         <v>27578</v>
@@ -3207,16 +3198,16 @@
         <v>8</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="E103" s="16" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="F103" s="18">
-        <v>27578</v>
+        <v>29509</v>
       </c>
       <c r="G103" s="18">
         <v>781242</v>
@@ -3230,16 +3221,16 @@
         <v>8</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>69</v>
+        <v>24</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="E104" s="16" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F104" s="18">
-        <v>27578</v>
+        <v>29520</v>
       </c>
       <c r="G104" s="18">
         <v>781242</v>
@@ -3253,19 +3244,19 @@
         <v>8</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>69</v>
+        <v>27</v>
       </c>
       <c r="D105" s="17" t="s">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="E105" s="16" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="F105" s="18">
-        <v>27578</v>
+        <v>29520</v>
       </c>
       <c r="G105" s="18">
-        <v>781242</v>
+        <v>738000</v>
       </c>
       <c r="H105" s="19"/>
       <c r="I105" s="19"/>
@@ -3276,16 +3267,16 @@
         <v>8</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="E106" s="16" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="F106" s="18">
-        <v>27578</v>
+        <v>29509</v>
       </c>
       <c r="G106" s="18">
         <v>781242</v>
@@ -3299,13 +3290,13 @@
         <v>8</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="D107" s="17" t="s">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="E107" s="16" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="F107" s="18">
         <v>27578</v>
@@ -3322,13 +3313,13 @@
         <v>8</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>69</v>
+        <v>14</v>
       </c>
       <c r="D108" s="17" t="s">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="E108" s="16" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="F108" s="18">
         <v>27578</v>
@@ -3345,16 +3336,16 @@
         <v>8</v>
       </c>
       <c r="C109" s="16" t="s">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="D109" s="17" t="s">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="E109" s="16" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="F109" s="18">
-        <v>27578</v>
+        <v>29509</v>
       </c>
       <c r="G109" s="18">
         <v>781242</v>
@@ -3368,16 +3359,16 @@
         <v>8</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>69</v>
+        <v>24</v>
       </c>
       <c r="D110" s="17" t="s">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="E110" s="16" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="F110" s="18">
-        <v>27578</v>
+        <v>29520</v>
       </c>
       <c r="G110" s="18">
         <v>781242</v>
@@ -3391,19 +3382,19 @@
         <v>8</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>69</v>
+        <v>27</v>
       </c>
       <c r="D111" s="17" t="s">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="E111" s="16" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="F111" s="18">
-        <v>27578</v>
+        <v>29520</v>
       </c>
       <c r="G111" s="18">
-        <v>781242</v>
+        <v>738000</v>
       </c>
       <c r="H111" s="19"/>
       <c r="I111" s="19"/>
@@ -3414,16 +3405,16 @@
         <v>8</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="D112" s="17" t="s">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="E112" s="16" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="F112" s="18">
-        <v>27578</v>
+        <v>29509</v>
       </c>
       <c r="G112" s="18">
         <v>781242</v>
@@ -3437,13 +3428,13 @@
         <v>8</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="D113" s="17" t="s">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="E113" s="16" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="F113" s="18">
         <v>27578</v>
@@ -3460,13 +3451,13 @@
         <v>8</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>69</v>
+        <v>14</v>
       </c>
       <c r="D114" s="17" t="s">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="E114" s="16" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="F114" s="18">
         <v>27578</v>
@@ -3483,16 +3474,16 @@
         <v>8</v>
       </c>
       <c r="C115" s="16" t="s">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="D115" s="17" t="s">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="E115" s="16" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="F115" s="18">
-        <v>27578</v>
+        <v>29509</v>
       </c>
       <c r="G115" s="18">
         <v>781242</v>
@@ -3506,16 +3497,16 @@
         <v>8</v>
       </c>
       <c r="C116" s="16" t="s">
-        <v>69</v>
+        <v>24</v>
       </c>
       <c r="D116" s="17" t="s">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="E116" s="16" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="F116" s="18">
-        <v>27578</v>
+        <v>29520</v>
       </c>
       <c r="G116" s="18">
         <v>781242</v>
@@ -3529,19 +3520,19 @@
         <v>8</v>
       </c>
       <c r="C117" s="16" t="s">
-        <v>69</v>
+        <v>27</v>
       </c>
       <c r="D117" s="17" t="s">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="E117" s="16" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="F117" s="18">
-        <v>27578</v>
+        <v>29520</v>
       </c>
       <c r="G117" s="18">
-        <v>781242</v>
+        <v>738000</v>
       </c>
       <c r="H117" s="19"/>
       <c r="I117" s="19"/>
@@ -3552,16 +3543,16 @@
         <v>8</v>
       </c>
       <c r="C118" s="16" t="s">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="D118" s="17" t="s">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="E118" s="16" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="F118" s="18">
-        <v>27578</v>
+        <v>29509</v>
       </c>
       <c r="G118" s="18">
         <v>781242</v>
@@ -3575,13 +3566,13 @@
         <v>8</v>
       </c>
       <c r="C119" s="16" t="s">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="D119" s="17" t="s">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="E119" s="16" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="F119" s="18">
         <v>27578</v>
@@ -3598,13 +3589,13 @@
         <v>8</v>
       </c>
       <c r="C120" s="16" t="s">
-        <v>69</v>
+        <v>14</v>
       </c>
       <c r="D120" s="17" t="s">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="E120" s="16" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="F120" s="18">
         <v>27578</v>
@@ -3621,16 +3612,16 @@
         <v>8</v>
       </c>
       <c r="C121" s="16" t="s">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="D121" s="17" t="s">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="E121" s="16" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="F121" s="18">
-        <v>27578</v>
+        <v>29509</v>
       </c>
       <c r="G121" s="18">
         <v>781242</v>
@@ -3644,16 +3635,16 @@
         <v>8</v>
       </c>
       <c r="C122" s="16" t="s">
-        <v>69</v>
+        <v>24</v>
       </c>
       <c r="D122" s="17" t="s">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="E122" s="16" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="F122" s="18">
-        <v>27578</v>
+        <v>29520</v>
       </c>
       <c r="G122" s="18">
         <v>781242</v>
@@ -3667,19 +3658,19 @@
         <v>8</v>
       </c>
       <c r="C123" s="16" t="s">
-        <v>69</v>
+        <v>27</v>
       </c>
       <c r="D123" s="17" t="s">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="E123" s="16" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="F123" s="18">
-        <v>27578</v>
+        <v>29520</v>
       </c>
       <c r="G123" s="18">
-        <v>781242</v>
+        <v>738000</v>
       </c>
       <c r="H123" s="19"/>
       <c r="I123" s="19"/>
@@ -3690,19 +3681,19 @@
         <v>8</v>
       </c>
       <c r="C124" s="16" t="s">
-        <v>71</v>
+        <v>33</v>
       </c>
       <c r="D124" s="17" t="s">
-        <v>72</v>
+        <v>34</v>
       </c>
       <c r="E124" s="16" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="F124" s="18">
-        <v>23958</v>
+        <v>29509</v>
       </c>
       <c r="G124" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H124" s="19"/>
       <c r="I124" s="19"/>
@@ -3713,19 +3704,19 @@
         <v>8</v>
       </c>
       <c r="C125" s="16" t="s">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="D125" s="17" t="s">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="E125" s="16" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="F125" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G125" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H125" s="19"/>
       <c r="I125" s="19"/>
@@ -3736,19 +3727,19 @@
         <v>8</v>
       </c>
       <c r="C126" s="16" t="s">
-        <v>71</v>
+        <v>14</v>
       </c>
       <c r="D126" s="17" t="s">
-        <v>72</v>
+        <v>15</v>
       </c>
       <c r="E126" s="16" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="F126" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G126" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H126" s="19"/>
       <c r="I126" s="19"/>
@@ -3759,19 +3750,19 @@
         <v>8</v>
       </c>
       <c r="C127" s="16" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="D127" s="17" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="E127" s="16" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="F127" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G127" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H127" s="19"/>
       <c r="I127" s="19"/>
@@ -3782,19 +3773,19 @@
         <v>8</v>
       </c>
       <c r="C128" s="16" t="s">
-        <v>71</v>
+        <v>24</v>
       </c>
       <c r="D128" s="17" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
       <c r="E128" s="16" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="F128" s="18">
-        <v>31249</v>
+        <v>29520</v>
       </c>
       <c r="G128" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H128" s="19"/>
       <c r="I128" s="19"/>
@@ -3805,19 +3796,19 @@
         <v>8</v>
       </c>
       <c r="C129" s="16" t="s">
-        <v>71</v>
+        <v>27</v>
       </c>
       <c r="D129" s="17" t="s">
-        <v>72</v>
+        <v>28</v>
       </c>
       <c r="E129" s="16" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="F129" s="18">
-        <v>31249</v>
+        <v>14760</v>
       </c>
       <c r="G129" s="18">
-        <v>737717</v>
+        <v>738000</v>
       </c>
       <c r="H129" s="19"/>
       <c r="I129" s="19"/>
@@ -3828,19 +3819,19 @@
         <v>8</v>
       </c>
       <c r="C130" s="16" t="s">
-        <v>71</v>
+        <v>33</v>
       </c>
       <c r="D130" s="17" t="s">
-        <v>72</v>
+        <v>34</v>
       </c>
       <c r="E130" s="16" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="F130" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G130" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H130" s="19"/>
       <c r="I130" s="19"/>
@@ -3851,19 +3842,19 @@
         <v>8</v>
       </c>
       <c r="C131" s="16" t="s">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="D131" s="17" t="s">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="E131" s="16" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="F131" s="18">
         <v>31249</v>
       </c>
       <c r="G131" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H131" s="19"/>
       <c r="I131" s="19"/>
@@ -3874,19 +3865,19 @@
         <v>8</v>
       </c>
       <c r="C132" s="16" t="s">
-        <v>71</v>
+        <v>14</v>
       </c>
       <c r="D132" s="17" t="s">
-        <v>72</v>
+        <v>15</v>
       </c>
       <c r="E132" s="16" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="F132" s="18">
         <v>31249</v>
       </c>
       <c r="G132" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H132" s="19"/>
       <c r="I132" s="19"/>
@@ -3897,19 +3888,19 @@
         <v>8</v>
       </c>
       <c r="C133" s="16" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="D133" s="17" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="E133" s="16" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="F133" s="18">
         <v>31249</v>
       </c>
       <c r="G133" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H133" s="19"/>
       <c r="I133" s="19"/>
@@ -3920,19 +3911,19 @@
         <v>8</v>
       </c>
       <c r="C134" s="16" t="s">
-        <v>71</v>
+        <v>24</v>
       </c>
       <c r="D134" s="17" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
       <c r="E134" s="16" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="F134" s="18">
         <v>31249</v>
       </c>
       <c r="G134" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H134" s="19"/>
       <c r="I134" s="19"/>
@@ -3943,19 +3934,19 @@
         <v>8</v>
       </c>
       <c r="C135" s="16" t="s">
-        <v>71</v>
+        <v>33</v>
       </c>
       <c r="D135" s="17" t="s">
-        <v>72</v>
+        <v>34</v>
       </c>
       <c r="E135" s="16" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="F135" s="18">
         <v>31249</v>
       </c>
       <c r="G135" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H135" s="19"/>
       <c r="I135" s="19"/>
@@ -3966,19 +3957,19 @@
         <v>8</v>
       </c>
       <c r="C136" s="16" t="s">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="D136" s="17" t="s">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="E136" s="16" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="F136" s="18">
         <v>31249</v>
       </c>
       <c r="G136" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H136" s="19"/>
       <c r="I136" s="19"/>
@@ -3989,19 +3980,19 @@
         <v>8</v>
       </c>
       <c r="C137" s="16" t="s">
-        <v>71</v>
+        <v>14</v>
       </c>
       <c r="D137" s="17" t="s">
-        <v>72</v>
+        <v>15</v>
       </c>
       <c r="E137" s="16" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F137" s="18">
         <v>31249</v>
       </c>
       <c r="G137" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H137" s="19"/>
       <c r="I137" s="19"/>
@@ -4012,19 +4003,19 @@
         <v>8</v>
       </c>
       <c r="C138" s="16" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="D138" s="17" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="E138" s="16" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="F138" s="18">
         <v>31249</v>
       </c>
       <c r="G138" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H138" s="19"/>
       <c r="I138" s="19"/>
@@ -4035,19 +4026,19 @@
         <v>8</v>
       </c>
       <c r="C139" s="16" t="s">
-        <v>71</v>
+        <v>24</v>
       </c>
       <c r="D139" s="17" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
       <c r="E139" s="16" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="F139" s="18">
         <v>31249</v>
       </c>
       <c r="G139" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H139" s="19"/>
       <c r="I139" s="19"/>
@@ -4058,19 +4049,19 @@
         <v>8</v>
       </c>
       <c r="C140" s="16" t="s">
-        <v>71</v>
+        <v>33</v>
       </c>
       <c r="D140" s="17" t="s">
-        <v>72</v>
+        <v>34</v>
       </c>
       <c r="E140" s="16" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="F140" s="18">
         <v>31249</v>
       </c>
       <c r="G140" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H140" s="19"/>
       <c r="I140" s="19"/>
@@ -4081,19 +4072,19 @@
         <v>8</v>
       </c>
       <c r="C141" s="16" t="s">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="D141" s="17" t="s">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="E141" s="16" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="F141" s="18">
         <v>31249</v>
       </c>
       <c r="G141" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H141" s="19"/>
       <c r="I141" s="19"/>
@@ -4104,19 +4095,19 @@
         <v>8</v>
       </c>
       <c r="C142" s="16" t="s">
-        <v>71</v>
+        <v>14</v>
       </c>
       <c r="D142" s="17" t="s">
-        <v>72</v>
+        <v>15</v>
       </c>
       <c r="E142" s="16" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="F142" s="18">
         <v>31249</v>
       </c>
       <c r="G142" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H142" s="19"/>
       <c r="I142" s="19"/>
@@ -4127,19 +4118,19 @@
         <v>8</v>
       </c>
       <c r="C143" s="16" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="D143" s="17" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="E143" s="16" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="F143" s="18">
         <v>31249</v>
       </c>
       <c r="G143" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H143" s="19"/>
       <c r="I143" s="19"/>
@@ -4150,19 +4141,19 @@
         <v>8</v>
       </c>
       <c r="C144" s="16" t="s">
-        <v>71</v>
+        <v>24</v>
       </c>
       <c r="D144" s="17" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
       <c r="E144" s="16" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="F144" s="18">
         <v>31249</v>
       </c>
       <c r="G144" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H144" s="19"/>
       <c r="I144" s="19"/>
@@ -4173,19 +4164,19 @@
         <v>8</v>
       </c>
       <c r="C145" s="16" t="s">
-        <v>71</v>
+        <v>33</v>
       </c>
       <c r="D145" s="17" t="s">
-        <v>72</v>
+        <v>34</v>
       </c>
       <c r="E145" s="16" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="F145" s="18">
         <v>31249</v>
       </c>
       <c r="G145" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H145" s="19"/>
       <c r="I145" s="19"/>
@@ -4196,19 +4187,19 @@
         <v>8</v>
       </c>
       <c r="C146" s="16" t="s">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="D146" s="17" t="s">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="E146" s="16" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="F146" s="18">
         <v>31249</v>
       </c>
       <c r="G146" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H146" s="19"/>
       <c r="I146" s="19"/>
@@ -4219,19 +4210,19 @@
         <v>8</v>
       </c>
       <c r="C147" s="16" t="s">
-        <v>71</v>
+        <v>14</v>
       </c>
       <c r="D147" s="17" t="s">
-        <v>72</v>
+        <v>15</v>
       </c>
       <c r="E147" s="16" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="F147" s="18">
         <v>31249</v>
       </c>
       <c r="G147" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H147" s="19"/>
       <c r="I147" s="19"/>
@@ -4242,19 +4233,19 @@
         <v>8</v>
       </c>
       <c r="C148" s="16" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="D148" s="17" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="E148" s="16" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="F148" s="18">
         <v>31249</v>
       </c>
       <c r="G148" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H148" s="19"/>
       <c r="I148" s="19"/>
@@ -4265,19 +4256,19 @@
         <v>8</v>
       </c>
       <c r="C149" s="16" t="s">
-        <v>71</v>
+        <v>24</v>
       </c>
       <c r="D149" s="17" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
       <c r="E149" s="16" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F149" s="18">
         <v>31249</v>
       </c>
       <c r="G149" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H149" s="19"/>
       <c r="I149" s="19"/>
@@ -4288,19 +4279,19 @@
         <v>8</v>
       </c>
       <c r="C150" s="16" t="s">
-        <v>71</v>
+        <v>33</v>
       </c>
       <c r="D150" s="17" t="s">
-        <v>72</v>
+        <v>34</v>
       </c>
       <c r="E150" s="16" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="F150" s="18">
         <v>31249</v>
       </c>
       <c r="G150" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H150" s="19"/>
       <c r="I150" s="19"/>
@@ -4311,19 +4302,19 @@
         <v>8</v>
       </c>
       <c r="C151" s="16" t="s">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="D151" s="17" t="s">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="E151" s="16" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="F151" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G151" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H151" s="19"/>
       <c r="I151" s="19"/>
@@ -4334,19 +4325,19 @@
         <v>8</v>
       </c>
       <c r="C152" s="16" t="s">
-        <v>71</v>
+        <v>14</v>
       </c>
       <c r="D152" s="17" t="s">
-        <v>72</v>
+        <v>15</v>
       </c>
       <c r="E152" s="16" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="F152" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G152" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H152" s="19"/>
       <c r="I152" s="19"/>
@@ -4357,19 +4348,19 @@
         <v>8</v>
       </c>
       <c r="C153" s="16" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="D153" s="17" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="E153" s="16" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="F153" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G153" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H153" s="19"/>
       <c r="I153" s="19"/>
@@ -4380,19 +4371,19 @@
         <v>8</v>
       </c>
       <c r="C154" s="16" t="s">
-        <v>71</v>
+        <v>24</v>
       </c>
       <c r="D154" s="17" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
       <c r="E154" s="16" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="F154" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G154" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H154" s="19"/>
       <c r="I154" s="19"/>
@@ -4403,19 +4394,19 @@
         <v>8</v>
       </c>
       <c r="C155" s="16" t="s">
-        <v>71</v>
+        <v>33</v>
       </c>
       <c r="D155" s="17" t="s">
-        <v>72</v>
+        <v>34</v>
       </c>
       <c r="E155" s="16" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="F155" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G155" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H155" s="19"/>
       <c r="I155" s="19"/>
@@ -4426,19 +4417,19 @@
         <v>8</v>
       </c>
       <c r="C156" s="16" t="s">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="D156" s="17" t="s">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="E156" s="16" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F156" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G156" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H156" s="19"/>
       <c r="I156" s="19"/>
@@ -4449,19 +4440,19 @@
         <v>8</v>
       </c>
       <c r="C157" s="16" t="s">
-        <v>71</v>
+        <v>14</v>
       </c>
       <c r="D157" s="17" t="s">
-        <v>72</v>
+        <v>15</v>
       </c>
       <c r="E157" s="16" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="F157" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G157" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H157" s="19"/>
       <c r="I157" s="19"/>
@@ -4472,19 +4463,19 @@
         <v>8</v>
       </c>
       <c r="C158" s="16" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="D158" s="17" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="E158" s="16" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F158" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G158" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H158" s="19"/>
       <c r="I158" s="19"/>
@@ -4495,19 +4486,19 @@
         <v>8</v>
       </c>
       <c r="C159" s="16" t="s">
-        <v>71</v>
+        <v>24</v>
       </c>
       <c r="D159" s="17" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
       <c r="E159" s="16" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F159" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G159" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H159" s="19"/>
       <c r="I159" s="19"/>
@@ -4518,19 +4509,19 @@
         <v>8</v>
       </c>
       <c r="C160" s="16" t="s">
-        <v>71</v>
+        <v>33</v>
       </c>
       <c r="D160" s="17" t="s">
-        <v>72</v>
+        <v>34</v>
       </c>
       <c r="E160" s="16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F160" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G160" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H160" s="19"/>
       <c r="I160" s="19"/>
@@ -4541,19 +4532,19 @@
         <v>8</v>
       </c>
       <c r="C161" s="16" t="s">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="D161" s="17" t="s">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="E161" s="16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F161" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G161" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H161" s="19"/>
       <c r="I161" s="19"/>
@@ -4564,19 +4555,19 @@
         <v>8</v>
       </c>
       <c r="C162" s="16" t="s">
-        <v>71</v>
+        <v>14</v>
       </c>
       <c r="D162" s="17" t="s">
-        <v>72</v>
+        <v>15</v>
       </c>
       <c r="E162" s="16" t="s">
         <v>55</v>
       </c>
       <c r="F162" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G162" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H162" s="19"/>
       <c r="I162" s="19"/>
@@ -4587,19 +4578,19 @@
         <v>8</v>
       </c>
       <c r="C163" s="16" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="D163" s="17" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="E163" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F163" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G163" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H163" s="19"/>
       <c r="I163" s="19"/>
@@ -4610,19 +4601,19 @@
         <v>8</v>
       </c>
       <c r="C164" s="16" t="s">
-        <v>71</v>
+        <v>24</v>
       </c>
       <c r="D164" s="17" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
       <c r="E164" s="16" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F164" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G164" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H164" s="19"/>
       <c r="I164" s="19"/>
@@ -4633,19 +4624,19 @@
         <v>8</v>
       </c>
       <c r="C165" s="16" t="s">
-        <v>71</v>
+        <v>33</v>
       </c>
       <c r="D165" s="17" t="s">
-        <v>72</v>
+        <v>34</v>
       </c>
       <c r="E165" s="16" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F165" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G165" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H165" s="19"/>
       <c r="I165" s="19"/>
@@ -4656,19 +4647,19 @@
         <v>8</v>
       </c>
       <c r="C166" s="16" t="s">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="D166" s="17" t="s">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="E166" s="16" t="s">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="F166" s="18">
-        <v>23958</v>
+        <v>31249</v>
       </c>
       <c r="G166" s="18">
-        <v>738000</v>
+        <v>781242</v>
       </c>
       <c r="H166" s="19"/>
       <c r="I166" s="19"/>
@@ -4679,19 +4670,19 @@
         <v>8</v>
       </c>
       <c r="C167" s="16" t="s">
-        <v>73</v>
+        <v>14</v>
       </c>
       <c r="D167" s="17" t="s">
-        <v>74</v>
+        <v>15</v>
       </c>
       <c r="E167" s="16" t="s">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="F167" s="18">
         <v>31249</v>
       </c>
       <c r="G167" s="18">
-        <v>738000</v>
+        <v>781242</v>
       </c>
       <c r="H167" s="19"/>
       <c r="I167" s="19"/>
@@ -4702,19 +4693,19 @@
         <v>8</v>
       </c>
       <c r="C168" s="16" t="s">
-        <v>73</v>
+        <v>31</v>
       </c>
       <c r="D168" s="17" t="s">
-        <v>74</v>
+        <v>32</v>
       </c>
       <c r="E168" s="16" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="F168" s="18">
         <v>31249</v>
       </c>
       <c r="G168" s="18">
-        <v>738000</v>
+        <v>781242</v>
       </c>
       <c r="H168" s="19"/>
       <c r="I168" s="19"/>
@@ -4725,19 +4716,19 @@
         <v>8</v>
       </c>
       <c r="C169" s="16" t="s">
-        <v>73</v>
+        <v>24</v>
       </c>
       <c r="D169" s="17" t="s">
-        <v>74</v>
+        <v>25</v>
       </c>
       <c r="E169" s="16" t="s">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="F169" s="18">
         <v>31249</v>
       </c>
       <c r="G169" s="18">
-        <v>738000</v>
+        <v>781242</v>
       </c>
       <c r="H169" s="19"/>
       <c r="I169" s="19"/>
@@ -4748,19 +4739,19 @@
         <v>8</v>
       </c>
       <c r="C170" s="16" t="s">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="D170" s="17" t="s">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="E170" s="16" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="F170" s="18">
         <v>31249</v>
       </c>
       <c r="G170" s="18">
-        <v>738000</v>
+        <v>781242</v>
       </c>
       <c r="H170" s="19"/>
       <c r="I170" s="19"/>
@@ -4771,19 +4762,19 @@
         <v>8</v>
       </c>
       <c r="C171" s="16" t="s">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="D171" s="17" t="s">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="E171" s="16" t="s">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="F171" s="18">
         <v>31249</v>
       </c>
       <c r="G171" s="18">
-        <v>738000</v>
+        <v>781242</v>
       </c>
       <c r="H171" s="19"/>
       <c r="I171" s="19"/>
@@ -4794,19 +4785,19 @@
         <v>8</v>
       </c>
       <c r="C172" s="16" t="s">
-        <v>73</v>
+        <v>14</v>
       </c>
       <c r="D172" s="17" t="s">
-        <v>74</v>
+        <v>15</v>
       </c>
       <c r="E172" s="16" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="F172" s="18">
         <v>31249</v>
       </c>
       <c r="G172" s="18">
-        <v>738000</v>
+        <v>781242</v>
       </c>
       <c r="H172" s="19"/>
       <c r="I172" s="19"/>
@@ -4817,19 +4808,19 @@
         <v>8</v>
       </c>
       <c r="C173" s="16" t="s">
-        <v>73</v>
+        <v>31</v>
       </c>
       <c r="D173" s="17" t="s">
-        <v>74</v>
+        <v>32</v>
       </c>
       <c r="E173" s="16" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="F173" s="18">
         <v>31249</v>
       </c>
       <c r="G173" s="18">
-        <v>738000</v>
+        <v>781242</v>
       </c>
       <c r="H173" s="19"/>
       <c r="I173" s="19"/>
@@ -4840,19 +4831,19 @@
         <v>8</v>
       </c>
       <c r="C174" s="16" t="s">
-        <v>73</v>
+        <v>24</v>
       </c>
       <c r="D174" s="17" t="s">
-        <v>74</v>
+        <v>25</v>
       </c>
       <c r="E174" s="16" t="s">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="F174" s="18">
         <v>31249</v>
       </c>
       <c r="G174" s="18">
-        <v>738000</v>
+        <v>781242</v>
       </c>
       <c r="H174" s="19"/>
       <c r="I174" s="19"/>
@@ -4863,19 +4854,19 @@
         <v>8</v>
       </c>
       <c r="C175" s="16" t="s">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="D175" s="17" t="s">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="E175" s="16" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="F175" s="18">
         <v>31249</v>
       </c>
       <c r="G175" s="18">
-        <v>738000</v>
+        <v>781242</v>
       </c>
       <c r="H175" s="19"/>
       <c r="I175" s="19"/>
@@ -4886,19 +4877,19 @@
         <v>8</v>
       </c>
       <c r="C176" s="16" t="s">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="D176" s="17" t="s">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="E176" s="16" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="F176" s="18">
         <v>31249</v>
       </c>
       <c r="G176" s="18">
-        <v>738000</v>
+        <v>781242</v>
       </c>
       <c r="H176" s="19"/>
       <c r="I176" s="19"/>
@@ -4909,19 +4900,19 @@
         <v>8</v>
       </c>
       <c r="C177" s="16" t="s">
-        <v>73</v>
+        <v>14</v>
       </c>
       <c r="D177" s="17" t="s">
-        <v>74</v>
+        <v>15</v>
       </c>
       <c r="E177" s="16" t="s">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="F177" s="18">
         <v>31249</v>
       </c>
       <c r="G177" s="18">
-        <v>738000</v>
+        <v>781242</v>
       </c>
       <c r="H177" s="19"/>
       <c r="I177" s="19"/>
@@ -4932,19 +4923,19 @@
         <v>8</v>
       </c>
       <c r="C178" s="16" t="s">
-        <v>73</v>
+        <v>31</v>
       </c>
       <c r="D178" s="17" t="s">
-        <v>74</v>
+        <v>32</v>
       </c>
       <c r="E178" s="16" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="F178" s="18">
         <v>31249</v>
       </c>
       <c r="G178" s="18">
-        <v>738000</v>
+        <v>781242</v>
       </c>
       <c r="H178" s="19"/>
       <c r="I178" s="19"/>
@@ -4955,19 +4946,19 @@
         <v>8</v>
       </c>
       <c r="C179" s="16" t="s">
-        <v>73</v>
+        <v>24</v>
       </c>
       <c r="D179" s="17" t="s">
-        <v>74</v>
+        <v>25</v>
       </c>
       <c r="E179" s="16" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="F179" s="18">
         <v>31249</v>
       </c>
       <c r="G179" s="18">
-        <v>738000</v>
+        <v>781242</v>
       </c>
       <c r="H179" s="19"/>
       <c r="I179" s="19"/>
@@ -4978,19 +4969,19 @@
         <v>8</v>
       </c>
       <c r="C180" s="16" t="s">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="D180" s="17" t="s">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="E180" s="16" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="F180" s="18">
         <v>31249</v>
       </c>
       <c r="G180" s="18">
-        <v>738000</v>
+        <v>781242</v>
       </c>
       <c r="H180" s="19"/>
       <c r="I180" s="19"/>
@@ -5001,19 +4992,19 @@
         <v>8</v>
       </c>
       <c r="C181" s="16" t="s">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="D181" s="17" t="s">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="E181" s="16" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="F181" s="18">
         <v>31249</v>
       </c>
       <c r="G181" s="18">
-        <v>738000</v>
+        <v>781242</v>
       </c>
       <c r="H181" s="19"/>
       <c r="I181" s="19"/>
@@ -5024,19 +5015,19 @@
         <v>8</v>
       </c>
       <c r="C182" s="16" t="s">
-        <v>73</v>
+        <v>14</v>
       </c>
       <c r="D182" s="17" t="s">
-        <v>74</v>
+        <v>15</v>
       </c>
       <c r="E182" s="16" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="F182" s="18">
         <v>31249</v>
       </c>
       <c r="G182" s="18">
-        <v>738000</v>
+        <v>781242</v>
       </c>
       <c r="H182" s="19"/>
       <c r="I182" s="19"/>
@@ -5047,19 +5038,19 @@
         <v>8</v>
       </c>
       <c r="C183" s="16" t="s">
-        <v>73</v>
+        <v>31</v>
       </c>
       <c r="D183" s="17" t="s">
-        <v>74</v>
+        <v>32</v>
       </c>
       <c r="E183" s="16" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="F183" s="18">
         <v>31249</v>
       </c>
       <c r="G183" s="18">
-        <v>738000</v>
+        <v>781242</v>
       </c>
       <c r="H183" s="19"/>
       <c r="I183" s="19"/>
@@ -5070,19 +5061,19 @@
         <v>8</v>
       </c>
       <c r="C184" s="16" t="s">
-        <v>73</v>
+        <v>24</v>
       </c>
       <c r="D184" s="17" t="s">
-        <v>74</v>
+        <v>25</v>
       </c>
       <c r="E184" s="16" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="F184" s="18">
         <v>31249</v>
       </c>
       <c r="G184" s="18">
-        <v>738000</v>
+        <v>781242</v>
       </c>
       <c r="H184" s="19"/>
       <c r="I184" s="19"/>
@@ -5093,19 +5084,19 @@
         <v>8</v>
       </c>
       <c r="C185" s="16" t="s">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="D185" s="17" t="s">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="E185" s="16" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="F185" s="18">
         <v>31249</v>
       </c>
       <c r="G185" s="18">
-        <v>738000</v>
+        <v>781242</v>
       </c>
       <c r="H185" s="19"/>
       <c r="I185" s="19"/>
@@ -5116,19 +5107,19 @@
         <v>8</v>
       </c>
       <c r="C186" s="16" t="s">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="D186" s="17" t="s">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="E186" s="16" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="F186" s="18">
         <v>31249</v>
       </c>
       <c r="G186" s="18">
-        <v>738000</v>
+        <v>781242</v>
       </c>
       <c r="H186" s="19"/>
       <c r="I186" s="19"/>
@@ -5139,19 +5130,19 @@
         <v>8</v>
       </c>
       <c r="C187" s="16" t="s">
-        <v>73</v>
+        <v>14</v>
       </c>
       <c r="D187" s="17" t="s">
-        <v>74</v>
+        <v>15</v>
       </c>
       <c r="E187" s="16" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="F187" s="18">
         <v>31249</v>
       </c>
       <c r="G187" s="18">
-        <v>738000</v>
+        <v>781242</v>
       </c>
       <c r="H187" s="19"/>
       <c r="I187" s="19"/>
@@ -5162,19 +5153,19 @@
         <v>8</v>
       </c>
       <c r="C188" s="16" t="s">
-        <v>73</v>
+        <v>31</v>
       </c>
       <c r="D188" s="17" t="s">
-        <v>74</v>
+        <v>32</v>
       </c>
       <c r="E188" s="16" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="F188" s="18">
         <v>31249</v>
       </c>
       <c r="G188" s="18">
-        <v>738000</v>
+        <v>781242</v>
       </c>
       <c r="H188" s="19"/>
       <c r="I188" s="19"/>
@@ -5185,19 +5176,19 @@
         <v>8</v>
       </c>
       <c r="C189" s="16" t="s">
-        <v>73</v>
+        <v>24</v>
       </c>
       <c r="D189" s="17" t="s">
-        <v>74</v>
+        <v>25</v>
       </c>
       <c r="E189" s="16" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="F189" s="18">
         <v>31249</v>
       </c>
       <c r="G189" s="18">
-        <v>738000</v>
+        <v>781242</v>
       </c>
       <c r="H189" s="19"/>
       <c r="I189" s="19"/>
@@ -5208,19 +5199,19 @@
         <v>8</v>
       </c>
       <c r="C190" s="16" t="s">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="D190" s="17" t="s">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="E190" s="16" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="F190" s="18">
         <v>31249</v>
       </c>
       <c r="G190" s="18">
-        <v>738000</v>
+        <v>781242</v>
       </c>
       <c r="H190" s="19"/>
       <c r="I190" s="19"/>
@@ -5231,19 +5222,19 @@
         <v>8</v>
       </c>
       <c r="C191" s="16" t="s">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="D191" s="17" t="s">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="E191" s="16" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="F191" s="18">
         <v>31249</v>
       </c>
       <c r="G191" s="18">
-        <v>738000</v>
+        <v>781242</v>
       </c>
       <c r="H191" s="19"/>
       <c r="I191" s="19"/>
@@ -5254,19 +5245,19 @@
         <v>8</v>
       </c>
       <c r="C192" s="16" t="s">
-        <v>73</v>
+        <v>14</v>
       </c>
       <c r="D192" s="17" t="s">
-        <v>74</v>
+        <v>15</v>
       </c>
       <c r="E192" s="16" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="F192" s="18">
         <v>31249</v>
       </c>
       <c r="G192" s="18">
-        <v>738000</v>
+        <v>781242</v>
       </c>
       <c r="H192" s="19"/>
       <c r="I192" s="19"/>
@@ -5277,19 +5268,19 @@
         <v>8</v>
       </c>
       <c r="C193" s="16" t="s">
-        <v>73</v>
+        <v>31</v>
       </c>
       <c r="D193" s="17" t="s">
-        <v>74</v>
+        <v>32</v>
       </c>
       <c r="E193" s="16" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="F193" s="18">
-        <v>29520</v>
+        <v>31249</v>
       </c>
       <c r="G193" s="18">
-        <v>738000</v>
+        <v>781242</v>
       </c>
       <c r="H193" s="19"/>
       <c r="I193" s="19"/>
@@ -5300,19 +5291,19 @@
         <v>8</v>
       </c>
       <c r="C194" s="16" t="s">
-        <v>73</v>
+        <v>24</v>
       </c>
       <c r="D194" s="17" t="s">
-        <v>74</v>
+        <v>25</v>
       </c>
       <c r="E194" s="16" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="F194" s="18">
-        <v>29520</v>
+        <v>31249</v>
       </c>
       <c r="G194" s="18">
-        <v>738000</v>
+        <v>781242</v>
       </c>
       <c r="H194" s="19"/>
       <c r="I194" s="19"/>
@@ -5323,19 +5314,19 @@
         <v>8</v>
       </c>
       <c r="C195" s="16" t="s">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="D195" s="17" t="s">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="E195" s="16" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="F195" s="18">
-        <v>29520</v>
+        <v>31249</v>
       </c>
       <c r="G195" s="18">
-        <v>738000</v>
+        <v>781242</v>
       </c>
       <c r="H195" s="19"/>
       <c r="I195" s="19"/>
@@ -5346,19 +5337,19 @@
         <v>8</v>
       </c>
       <c r="C196" s="16" t="s">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="D196" s="17" t="s">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="E196" s="16" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="F196" s="18">
-        <v>29520</v>
+        <v>31249</v>
       </c>
       <c r="G196" s="18">
-        <v>738000</v>
+        <v>781242</v>
       </c>
       <c r="H196" s="19"/>
       <c r="I196" s="19"/>
@@ -5369,19 +5360,19 @@
         <v>8</v>
       </c>
       <c r="C197" s="16" t="s">
-        <v>73</v>
+        <v>14</v>
       </c>
       <c r="D197" s="17" t="s">
-        <v>74</v>
+        <v>15</v>
       </c>
       <c r="E197" s="16" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="F197" s="18">
-        <v>29520</v>
+        <v>31249</v>
       </c>
       <c r="G197" s="18">
-        <v>738000</v>
+        <v>781242</v>
       </c>
       <c r="H197" s="19"/>
       <c r="I197" s="19"/>
@@ -5392,19 +5383,19 @@
         <v>8</v>
       </c>
       <c r="C198" s="16" t="s">
-        <v>73</v>
+        <v>31</v>
       </c>
       <c r="D198" s="17" t="s">
-        <v>74</v>
+        <v>32</v>
       </c>
       <c r="E198" s="16" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="F198" s="18">
-        <v>29520</v>
+        <v>31249</v>
       </c>
       <c r="G198" s="18">
-        <v>738000</v>
+        <v>781242</v>
       </c>
       <c r="H198" s="19"/>
       <c r="I198" s="19"/>
@@ -5415,19 +5406,19 @@
         <v>8</v>
       </c>
       <c r="C199" s="16" t="s">
-        <v>73</v>
+        <v>24</v>
       </c>
       <c r="D199" s="17" t="s">
-        <v>74</v>
+        <v>25</v>
       </c>
       <c r="E199" s="16" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="F199" s="18">
-        <v>29520</v>
+        <v>31249</v>
       </c>
       <c r="G199" s="18">
-        <v>738000</v>
+        <v>781242</v>
       </c>
       <c r="H199" s="19"/>
       <c r="I199" s="19"/>
@@ -5438,19 +5429,19 @@
         <v>8</v>
       </c>
       <c r="C200" s="16" t="s">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="D200" s="17" t="s">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="E200" s="16" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="F200" s="18">
-        <v>29520</v>
+        <v>31249</v>
       </c>
       <c r="G200" s="18">
-        <v>738000</v>
+        <v>781242</v>
       </c>
       <c r="H200" s="19"/>
       <c r="I200" s="19"/>
@@ -5461,19 +5452,19 @@
         <v>8</v>
       </c>
       <c r="C201" s="16" t="s">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="D201" s="17" t="s">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="E201" s="16" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="F201" s="18">
-        <v>29520</v>
+        <v>31249</v>
       </c>
       <c r="G201" s="18">
-        <v>738000</v>
+        <v>781242</v>
       </c>
       <c r="H201" s="19"/>
       <c r="I201" s="19"/>
@@ -5484,19 +5475,19 @@
         <v>8</v>
       </c>
       <c r="C202" s="16" t="s">
-        <v>73</v>
+        <v>14</v>
       </c>
       <c r="D202" s="17" t="s">
-        <v>74</v>
+        <v>15</v>
       </c>
       <c r="E202" s="16" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="F202" s="18">
-        <v>29520</v>
+        <v>31249</v>
       </c>
       <c r="G202" s="18">
-        <v>738000</v>
+        <v>781242</v>
       </c>
       <c r="H202" s="19"/>
       <c r="I202" s="19"/>
@@ -5507,19 +5498,19 @@
         <v>8</v>
       </c>
       <c r="C203" s="16" t="s">
-        <v>73</v>
+        <v>31</v>
       </c>
       <c r="D203" s="17" t="s">
-        <v>74</v>
+        <v>32</v>
       </c>
       <c r="E203" s="16" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="F203" s="18">
-        <v>29520</v>
+        <v>31249</v>
       </c>
       <c r="G203" s="18">
-        <v>738000</v>
+        <v>781242</v>
       </c>
       <c r="H203" s="19"/>
       <c r="I203" s="19"/>
@@ -5530,19 +5521,19 @@
         <v>8</v>
       </c>
       <c r="C204" s="16" t="s">
-        <v>73</v>
+        <v>24</v>
       </c>
       <c r="D204" s="17" t="s">
-        <v>74</v>
+        <v>25</v>
       </c>
       <c r="E204" s="16" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="F204" s="18">
-        <v>29520</v>
+        <v>31249</v>
       </c>
       <c r="G204" s="18">
-        <v>738000</v>
+        <v>781242</v>
       </c>
       <c r="H204" s="19"/>
       <c r="I204" s="19"/>
@@ -5553,19 +5544,19 @@
         <v>8</v>
       </c>
       <c r="C205" s="16" t="s">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="D205" s="17" t="s">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="E205" s="16" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="F205" s="18">
-        <v>29520</v>
+        <v>31249</v>
       </c>
       <c r="G205" s="18">
-        <v>738000</v>
+        <v>781242</v>
       </c>
       <c r="H205" s="19"/>
       <c r="I205" s="19"/>
@@ -5576,19 +5567,19 @@
         <v>8</v>
       </c>
       <c r="C206" s="16" t="s">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="D206" s="17" t="s">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="E206" s="16" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="F206" s="18">
-        <v>29520</v>
+        <v>31249</v>
       </c>
       <c r="G206" s="18">
-        <v>738000</v>
+        <v>781242</v>
       </c>
       <c r="H206" s="19"/>
       <c r="I206" s="19"/>
@@ -5599,19 +5590,19 @@
         <v>8</v>
       </c>
       <c r="C207" s="16" t="s">
-        <v>73</v>
+        <v>14</v>
       </c>
       <c r="D207" s="17" t="s">
-        <v>74</v>
+        <v>15</v>
       </c>
       <c r="E207" s="16" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F207" s="18">
-        <v>29520</v>
+        <v>31249</v>
       </c>
       <c r="G207" s="18">
-        <v>738000</v>
+        <v>781242</v>
       </c>
       <c r="H207" s="19"/>
       <c r="I207" s="19"/>
@@ -5622,19 +5613,19 @@
         <v>8</v>
       </c>
       <c r="C208" s="16" t="s">
-        <v>75</v>
+        <v>31</v>
       </c>
       <c r="D208" s="17" t="s">
-        <v>76</v>
+        <v>32</v>
       </c>
       <c r="E208" s="16" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="F208" s="18">
-        <v>14760</v>
+        <v>31249</v>
       </c>
       <c r="G208" s="18">
-        <v>738000</v>
+        <v>781242</v>
       </c>
       <c r="H208" s="19"/>
       <c r="I208" s="19"/>
@@ -5645,19 +5636,19 @@
         <v>8</v>
       </c>
       <c r="C209" s="16" t="s">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="D209" s="17" t="s">
-        <v>76</v>
+        <v>25</v>
       </c>
       <c r="E209" s="16" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="F209" s="18">
-        <v>29520</v>
+        <v>31249</v>
       </c>
       <c r="G209" s="18">
-        <v>738000</v>
+        <v>781242</v>
       </c>
       <c r="H209" s="19"/>
       <c r="I209" s="19"/>
@@ -5668,19 +5659,19 @@
         <v>8</v>
       </c>
       <c r="C210" s="16" t="s">
-        <v>75</v>
+        <v>33</v>
       </c>
       <c r="D210" s="17" t="s">
-        <v>76</v>
+        <v>34</v>
       </c>
       <c r="E210" s="16" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="F210" s="18">
-        <v>29520</v>
+        <v>31249</v>
       </c>
       <c r="G210" s="18">
-        <v>738000</v>
+        <v>781242</v>
       </c>
       <c r="H210" s="19"/>
       <c r="I210" s="19"/>
@@ -5691,19 +5682,19 @@
         <v>8</v>
       </c>
       <c r="C211" s="16" t="s">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="D211" s="17" t="s">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="E211" s="16" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="F211" s="18">
-        <v>29520</v>
+        <v>31249</v>
       </c>
       <c r="G211" s="18">
-        <v>738000</v>
+        <v>781242</v>
       </c>
       <c r="H211" s="19"/>
       <c r="I211" s="19"/>
@@ -5714,19 +5705,19 @@
         <v>8</v>
       </c>
       <c r="C212" s="16" t="s">
-        <v>75</v>
+        <v>14</v>
       </c>
       <c r="D212" s="17" t="s">
-        <v>76</v>
+        <v>15</v>
       </c>
       <c r="E212" s="16" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="F212" s="18">
-        <v>29520</v>
+        <v>31249</v>
       </c>
       <c r="G212" s="18">
-        <v>738000</v>
+        <v>781242</v>
       </c>
       <c r="H212" s="19"/>
       <c r="I212" s="19"/>
@@ -5737,19 +5728,19 @@
         <v>8</v>
       </c>
       <c r="C213" s="16" t="s">
-        <v>75</v>
+        <v>31</v>
       </c>
       <c r="D213" s="17" t="s">
-        <v>76</v>
+        <v>32</v>
       </c>
       <c r="E213" s="16" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="F213" s="18">
-        <v>29520</v>
+        <v>31249</v>
       </c>
       <c r="G213" s="18">
-        <v>738000</v>
+        <v>781242</v>
       </c>
       <c r="H213" s="19"/>
       <c r="I213" s="19"/>
@@ -5760,19 +5751,19 @@
         <v>8</v>
       </c>
       <c r="C214" s="16" t="s">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="D214" s="17" t="s">
-        <v>76</v>
+        <v>25</v>
       </c>
       <c r="E214" s="16" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="F214" s="18">
-        <v>29520</v>
+        <v>31249</v>
       </c>
       <c r="G214" s="18">
-        <v>738000</v>
+        <v>781242</v>
       </c>
       <c r="H214" s="19"/>
       <c r="I214" s="19"/>
@@ -5783,19 +5774,19 @@
         <v>8</v>
       </c>
       <c r="C215" s="16" t="s">
-        <v>75</v>
+        <v>33</v>
       </c>
       <c r="D215" s="17" t="s">
-        <v>76</v>
+        <v>34</v>
       </c>
       <c r="E215" s="16" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="F215" s="18">
-        <v>29520</v>
+        <v>31249</v>
       </c>
       <c r="G215" s="18">
-        <v>738000</v>
+        <v>781242</v>
       </c>
       <c r="H215" s="19"/>
       <c r="I215" s="19"/>
@@ -5806,19 +5797,19 @@
         <v>8</v>
       </c>
       <c r="C216" s="16" t="s">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="D216" s="17" t="s">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="E216" s="16" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="F216" s="18">
-        <v>29520</v>
+        <v>31249</v>
       </c>
       <c r="G216" s="18">
-        <v>738000</v>
+        <v>781242</v>
       </c>
       <c r="H216" s="19"/>
       <c r="I216" s="19"/>
@@ -5829,19 +5820,19 @@
         <v>8</v>
       </c>
       <c r="C217" s="16" t="s">
-        <v>75</v>
+        <v>14</v>
       </c>
       <c r="D217" s="17" t="s">
-        <v>76</v>
+        <v>15</v>
       </c>
       <c r="E217" s="16" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="F217" s="18">
-        <v>29520</v>
+        <v>31249</v>
       </c>
       <c r="G217" s="18">
-        <v>738000</v>
+        <v>781242</v>
       </c>
       <c r="H217" s="19"/>
       <c r="I217" s="19"/>
@@ -5852,19 +5843,19 @@
         <v>8</v>
       </c>
       <c r="C218" s="16" t="s">
-        <v>75</v>
+        <v>31</v>
       </c>
       <c r="D218" s="17" t="s">
-        <v>76</v>
+        <v>32</v>
       </c>
       <c r="E218" s="16" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="F218" s="18">
-        <v>29520</v>
+        <v>31249</v>
       </c>
       <c r="G218" s="18">
-        <v>738000</v>
+        <v>781242</v>
       </c>
       <c r="H218" s="19"/>
       <c r="I218" s="19"/>
@@ -5875,19 +5866,19 @@
         <v>8</v>
       </c>
       <c r="C219" s="16" t="s">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="D219" s="17" t="s">
-        <v>76</v>
+        <v>25</v>
       </c>
       <c r="E219" s="16" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="F219" s="18">
-        <v>29520</v>
+        <v>31249</v>
       </c>
       <c r="G219" s="18">
-        <v>738000</v>
+        <v>781242</v>
       </c>
       <c r="H219" s="19"/>
       <c r="I219" s="19"/>
@@ -5898,19 +5889,19 @@
         <v>8</v>
       </c>
       <c r="C220" s="16" t="s">
-        <v>75</v>
+        <v>33</v>
       </c>
       <c r="D220" s="17" t="s">
-        <v>76</v>
+        <v>34</v>
       </c>
       <c r="E220" s="16" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="F220" s="18">
-        <v>29520</v>
+        <v>31249</v>
       </c>
       <c r="G220" s="18">
-        <v>738000</v>
+        <v>781242</v>
       </c>
       <c r="H220" s="19"/>
       <c r="I220" s="19"/>
@@ -5921,19 +5912,19 @@
         <v>8</v>
       </c>
       <c r="C221" s="16" t="s">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="D221" s="17" t="s">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="E221" s="16" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="F221" s="18">
-        <v>29520</v>
+        <v>31249</v>
       </c>
       <c r="G221" s="18">
-        <v>738000</v>
+        <v>781242</v>
       </c>
       <c r="H221" s="19"/>
       <c r="I221" s="19"/>
@@ -5944,19 +5935,19 @@
         <v>8</v>
       </c>
       <c r="C222" s="16" t="s">
-        <v>75</v>
+        <v>14</v>
       </c>
       <c r="D222" s="17" t="s">
-        <v>76</v>
+        <v>15</v>
       </c>
       <c r="E222" s="16" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="F222" s="18">
-        <v>29520</v>
+        <v>31249</v>
       </c>
       <c r="G222" s="18">
-        <v>738000</v>
+        <v>781242</v>
       </c>
       <c r="H222" s="19"/>
       <c r="I222" s="19"/>
@@ -5967,19 +5958,19 @@
         <v>8</v>
       </c>
       <c r="C223" s="16" t="s">
-        <v>75</v>
+        <v>31</v>
       </c>
       <c r="D223" s="17" t="s">
-        <v>76</v>
+        <v>32</v>
       </c>
       <c r="E223" s="16" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="F223" s="18">
-        <v>29520</v>
+        <v>31249</v>
       </c>
       <c r="G223" s="18">
-        <v>738000</v>
+        <v>781242</v>
       </c>
       <c r="H223" s="19"/>
       <c r="I223" s="19"/>
@@ -5990,19 +5981,19 @@
         <v>8</v>
       </c>
       <c r="C224" s="16" t="s">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="D224" s="17" t="s">
-        <v>76</v>
+        <v>25</v>
       </c>
       <c r="E224" s="16" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="F224" s="18">
-        <v>29520</v>
+        <v>31249</v>
       </c>
       <c r="G224" s="18">
-        <v>738000</v>
+        <v>781242</v>
       </c>
       <c r="H224" s="19"/>
       <c r="I224" s="19"/>
@@ -6013,19 +6004,19 @@
         <v>8</v>
       </c>
       <c r="C225" s="16" t="s">
-        <v>77</v>
+        <v>33</v>
       </c>
       <c r="D225" s="17" t="s">
-        <v>78</v>
+        <v>34</v>
       </c>
       <c r="E225" s="16" t="s">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="F225" s="18">
-        <v>23958</v>
+        <v>31249</v>
       </c>
       <c r="G225" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H225" s="19"/>
       <c r="I225" s="19"/>
@@ -6036,19 +6027,19 @@
         <v>8</v>
       </c>
       <c r="C226" s="16" t="s">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="D226" s="17" t="s">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="E226" s="16" t="s">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="F226" s="18">
         <v>31249</v>
       </c>
       <c r="G226" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H226" s="19"/>
       <c r="I226" s="19"/>
@@ -6059,19 +6050,19 @@
         <v>8</v>
       </c>
       <c r="C227" s="16" t="s">
-        <v>77</v>
+        <v>14</v>
       </c>
       <c r="D227" s="17" t="s">
-        <v>78</v>
+        <v>15</v>
       </c>
       <c r="E227" s="16" t="s">
-        <v>19</v>
+        <v>68</v>
       </c>
       <c r="F227" s="18">
         <v>31249</v>
       </c>
       <c r="G227" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H227" s="19"/>
       <c r="I227" s="19"/>
@@ -6082,19 +6073,19 @@
         <v>8</v>
       </c>
       <c r="C228" s="16" t="s">
-        <v>77</v>
+        <v>31</v>
       </c>
       <c r="D228" s="17" t="s">
-        <v>78</v>
+        <v>32</v>
       </c>
       <c r="E228" s="16" t="s">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="F228" s="18">
         <v>31249</v>
       </c>
       <c r="G228" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H228" s="19"/>
       <c r="I228" s="19"/>
@@ -6105,19 +6096,19 @@
         <v>8</v>
       </c>
       <c r="C229" s="16" t="s">
-        <v>77</v>
+        <v>24</v>
       </c>
       <c r="D229" s="17" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="E229" s="16" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="F229" s="18">
         <v>31249</v>
       </c>
       <c r="G229" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H229" s="19"/>
       <c r="I229" s="19"/>
@@ -6128,19 +6119,19 @@
         <v>8</v>
       </c>
       <c r="C230" s="16" t="s">
-        <v>77</v>
+        <v>33</v>
       </c>
       <c r="D230" s="17" t="s">
-        <v>78</v>
+        <v>34</v>
       </c>
       <c r="E230" s="16" t="s">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="F230" s="18">
         <v>31249</v>
       </c>
       <c r="G230" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H230" s="19"/>
       <c r="I230" s="19"/>
@@ -6151,19 +6142,19 @@
         <v>8</v>
       </c>
       <c r="C231" s="16" t="s">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="D231" s="17" t="s">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="E231" s="16" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="F231" s="18">
         <v>31249</v>
       </c>
       <c r="G231" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H231" s="19"/>
       <c r="I231" s="19"/>
@@ -6174,19 +6165,19 @@
         <v>8</v>
       </c>
       <c r="C232" s="16" t="s">
-        <v>77</v>
+        <v>14</v>
       </c>
       <c r="D232" s="17" t="s">
-        <v>78</v>
+        <v>15</v>
       </c>
       <c r="E232" s="16" t="s">
-        <v>24</v>
+        <v>69</v>
       </c>
       <c r="F232" s="18">
         <v>31249</v>
       </c>
       <c r="G232" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H232" s="19"/>
       <c r="I232" s="19"/>
@@ -6197,19 +6188,19 @@
         <v>8</v>
       </c>
       <c r="C233" s="16" t="s">
-        <v>77</v>
+        <v>31</v>
       </c>
       <c r="D233" s="17" t="s">
-        <v>78</v>
+        <v>32</v>
       </c>
       <c r="E233" s="16" t="s">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="F233" s="18">
         <v>31249</v>
       </c>
       <c r="G233" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H233" s="19"/>
       <c r="I233" s="19"/>
@@ -6220,19 +6211,19 @@
         <v>8</v>
       </c>
       <c r="C234" s="16" t="s">
-        <v>77</v>
+        <v>24</v>
       </c>
       <c r="D234" s="17" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="E234" s="16" t="s">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="F234" s="18">
         <v>31249</v>
       </c>
       <c r="G234" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H234" s="19"/>
       <c r="I234" s="19"/>
@@ -6243,19 +6234,19 @@
         <v>8</v>
       </c>
       <c r="C235" s="16" t="s">
-        <v>77</v>
+        <v>33</v>
       </c>
       <c r="D235" s="17" t="s">
-        <v>78</v>
+        <v>34</v>
       </c>
       <c r="E235" s="16" t="s">
-        <v>27</v>
+        <v>69</v>
       </c>
       <c r="F235" s="18">
         <v>31249</v>
       </c>
       <c r="G235" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H235" s="19"/>
       <c r="I235" s="19"/>
@@ -6266,19 +6257,19 @@
         <v>8</v>
       </c>
       <c r="C236" s="16" t="s">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="D236" s="17" t="s">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="E236" s="16" t="s">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="F236" s="18">
         <v>31249</v>
       </c>
       <c r="G236" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H236" s="19"/>
       <c r="I236" s="19"/>
@@ -6289,19 +6280,19 @@
         <v>8</v>
       </c>
       <c r="C237" s="16" t="s">
-        <v>77</v>
+        <v>14</v>
       </c>
       <c r="D237" s="17" t="s">
-        <v>78</v>
+        <v>15</v>
       </c>
       <c r="E237" s="16" t="s">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="F237" s="18">
         <v>31249</v>
       </c>
       <c r="G237" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H237" s="19"/>
       <c r="I237" s="19"/>
@@ -6312,19 +6303,19 @@
         <v>8</v>
       </c>
       <c r="C238" s="16" t="s">
-        <v>77</v>
+        <v>31</v>
       </c>
       <c r="D238" s="17" t="s">
-        <v>78</v>
+        <v>32</v>
       </c>
       <c r="E238" s="16" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="F238" s="18">
         <v>31249</v>
       </c>
       <c r="G238" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H238" s="19"/>
       <c r="I238" s="19"/>
@@ -6335,19 +6326,19 @@
         <v>8</v>
       </c>
       <c r="C239" s="16" t="s">
-        <v>77</v>
+        <v>24</v>
       </c>
       <c r="D239" s="17" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="E239" s="16" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="F239" s="18">
         <v>31249</v>
       </c>
       <c r="G239" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H239" s="19"/>
       <c r="I239" s="19"/>
@@ -6358,19 +6349,19 @@
         <v>8</v>
       </c>
       <c r="C240" s="16" t="s">
-        <v>77</v>
+        <v>33</v>
       </c>
       <c r="D240" s="17" t="s">
-        <v>78</v>
+        <v>34</v>
       </c>
       <c r="E240" s="16" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="F240" s="18">
         <v>31249</v>
       </c>
       <c r="G240" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H240" s="19"/>
       <c r="I240" s="19"/>
@@ -6381,19 +6372,19 @@
         <v>8</v>
       </c>
       <c r="C241" s="16" t="s">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="D241" s="17" t="s">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="E241" s="16" t="s">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="F241" s="18">
         <v>31249</v>
       </c>
       <c r="G241" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H241" s="19"/>
       <c r="I241" s="19"/>
@@ -6404,19 +6395,19 @@
         <v>8</v>
       </c>
       <c r="C242" s="16" t="s">
-        <v>77</v>
+        <v>14</v>
       </c>
       <c r="D242" s="17" t="s">
-        <v>78</v>
+        <v>15</v>
       </c>
       <c r="E242" s="16" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="F242" s="18">
         <v>31249</v>
       </c>
       <c r="G242" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H242" s="19"/>
       <c r="I242" s="19"/>
@@ -6427,19 +6418,19 @@
         <v>8</v>
       </c>
       <c r="C243" s="16" t="s">
-        <v>77</v>
+        <v>31</v>
       </c>
       <c r="D243" s="17" t="s">
-        <v>78</v>
+        <v>32</v>
       </c>
       <c r="E243" s="16" t="s">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="F243" s="18">
         <v>31249</v>
       </c>
       <c r="G243" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H243" s="19"/>
       <c r="I243" s="19"/>
@@ -6450,19 +6441,19 @@
         <v>8</v>
       </c>
       <c r="C244" s="16" t="s">
-        <v>77</v>
+        <v>24</v>
       </c>
       <c r="D244" s="17" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="E244" s="16" t="s">
-        <v>36</v>
+        <v>71</v>
       </c>
       <c r="F244" s="18">
         <v>31249</v>
       </c>
       <c r="G244" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H244" s="19"/>
       <c r="I244" s="19"/>
@@ -6473,19 +6464,19 @@
         <v>8</v>
       </c>
       <c r="C245" s="16" t="s">
-        <v>77</v>
+        <v>33</v>
       </c>
       <c r="D245" s="17" t="s">
-        <v>78</v>
+        <v>34</v>
       </c>
       <c r="E245" s="16" t="s">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="F245" s="18">
         <v>31249</v>
       </c>
       <c r="G245" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H245" s="19"/>
       <c r="I245" s="19"/>
@@ -6496,19 +6487,19 @@
         <v>8</v>
       </c>
       <c r="C246" s="16" t="s">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="D246" s="17" t="s">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="E246" s="16" t="s">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="F246" s="18">
         <v>31249</v>
       </c>
       <c r="G246" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H246" s="19"/>
       <c r="I246" s="19"/>
@@ -6519,19 +6510,19 @@
         <v>8</v>
       </c>
       <c r="C247" s="16" t="s">
-        <v>77</v>
+        <v>14</v>
       </c>
       <c r="D247" s="17" t="s">
-        <v>78</v>
+        <v>15</v>
       </c>
       <c r="E247" s="16" t="s">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="F247" s="18">
         <v>31249</v>
       </c>
       <c r="G247" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H247" s="19"/>
       <c r="I247" s="19"/>
@@ -6542,19 +6533,19 @@
         <v>8</v>
       </c>
       <c r="C248" s="16" t="s">
-        <v>77</v>
+        <v>31</v>
       </c>
       <c r="D248" s="17" t="s">
-        <v>78</v>
+        <v>32</v>
       </c>
       <c r="E248" s="16" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="F248" s="18">
         <v>31249</v>
       </c>
       <c r="G248" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H248" s="19"/>
       <c r="I248" s="19"/>
@@ -6565,19 +6556,19 @@
         <v>8</v>
       </c>
       <c r="C249" s="16" t="s">
-        <v>77</v>
+        <v>24</v>
       </c>
       <c r="D249" s="17" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="E249" s="16" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="F249" s="18">
         <v>31249</v>
       </c>
       <c r="G249" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H249" s="19"/>
       <c r="I249" s="19"/>
@@ -6588,19 +6579,19 @@
         <v>8</v>
       </c>
       <c r="C250" s="16" t="s">
-        <v>77</v>
+        <v>33</v>
       </c>
       <c r="D250" s="17" t="s">
-        <v>78</v>
+        <v>34</v>
       </c>
       <c r="E250" s="16" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="F250" s="18">
         <v>31249</v>
       </c>
       <c r="G250" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H250" s="19"/>
       <c r="I250" s="19"/>
@@ -6611,19 +6602,19 @@
         <v>8</v>
       </c>
       <c r="C251" s="16" t="s">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="D251" s="17" t="s">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="E251" s="16" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="F251" s="18">
         <v>31249</v>
       </c>
       <c r="G251" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H251" s="19"/>
       <c r="I251" s="19"/>
@@ -6634,19 +6625,19 @@
         <v>8</v>
       </c>
       <c r="C252" s="16" t="s">
-        <v>77</v>
+        <v>14</v>
       </c>
       <c r="D252" s="17" t="s">
-        <v>78</v>
+        <v>15</v>
       </c>
       <c r="E252" s="16" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="F252" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G252" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H252" s="19"/>
       <c r="I252" s="19"/>
@@ -6657,19 +6648,19 @@
         <v>8</v>
       </c>
       <c r="C253" s="16" t="s">
-        <v>77</v>
+        <v>31</v>
       </c>
       <c r="D253" s="17" t="s">
-        <v>78</v>
+        <v>32</v>
       </c>
       <c r="E253" s="16" t="s">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="F253" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G253" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H253" s="19"/>
       <c r="I253" s="19"/>
@@ -6680,19 +6671,19 @@
         <v>8</v>
       </c>
       <c r="C254" s="16" t="s">
-        <v>77</v>
+        <v>24</v>
       </c>
       <c r="D254" s="17" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="E254" s="16" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="F254" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G254" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H254" s="19"/>
       <c r="I254" s="19"/>
@@ -6703,19 +6694,19 @@
         <v>8</v>
       </c>
       <c r="C255" s="16" t="s">
-        <v>77</v>
+        <v>33</v>
       </c>
       <c r="D255" s="17" t="s">
-        <v>78</v>
+        <v>34</v>
       </c>
       <c r="E255" s="16" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="F255" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G255" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H255" s="19"/>
       <c r="I255" s="19"/>
@@ -6726,19 +6717,19 @@
         <v>8</v>
       </c>
       <c r="C256" s="16" t="s">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="D256" s="17" t="s">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="E256" s="16" t="s">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="F256" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G256" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H256" s="19"/>
       <c r="I256" s="19"/>
@@ -6749,19 +6740,19 @@
         <v>8</v>
       </c>
       <c r="C257" s="16" t="s">
-        <v>77</v>
+        <v>14</v>
       </c>
       <c r="D257" s="17" t="s">
-        <v>78</v>
+        <v>15</v>
       </c>
       <c r="E257" s="16" t="s">
-        <v>49</v>
+        <v>74</v>
       </c>
       <c r="F257" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G257" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H257" s="19"/>
       <c r="I257" s="19"/>
@@ -6772,19 +6763,19 @@
         <v>8</v>
       </c>
       <c r="C258" s="16" t="s">
-        <v>77</v>
+        <v>31</v>
       </c>
       <c r="D258" s="17" t="s">
-        <v>78</v>
+        <v>32</v>
       </c>
       <c r="E258" s="16" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="F258" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G258" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H258" s="19"/>
       <c r="I258" s="19"/>
@@ -6795,19 +6786,19 @@
         <v>8</v>
       </c>
       <c r="C259" s="16" t="s">
-        <v>77</v>
+        <v>24</v>
       </c>
       <c r="D259" s="17" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="E259" s="16" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="F259" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G259" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H259" s="19"/>
       <c r="I259" s="19"/>
@@ -6818,19 +6809,19 @@
         <v>8</v>
       </c>
       <c r="C260" s="16" t="s">
-        <v>77</v>
+        <v>33</v>
       </c>
       <c r="D260" s="17" t="s">
-        <v>78</v>
+        <v>34</v>
       </c>
       <c r="E260" s="16" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="F260" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G260" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H260" s="19"/>
       <c r="I260" s="19"/>
@@ -6841,19 +6832,19 @@
         <v>8</v>
       </c>
       <c r="C261" s="16" t="s">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="D261" s="17" t="s">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="E261" s="16" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="F261" s="18">
-        <v>29509</v>
+        <v>23958</v>
       </c>
       <c r="G261" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H261" s="19"/>
       <c r="I261" s="19"/>
@@ -6864,19 +6855,19 @@
         <v>8</v>
       </c>
       <c r="C262" s="16" t="s">
-        <v>77</v>
+        <v>14</v>
       </c>
       <c r="D262" s="17" t="s">
-        <v>78</v>
+        <v>15</v>
       </c>
       <c r="E262" s="16" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="F262" s="18">
-        <v>29509</v>
+        <v>23958</v>
       </c>
       <c r="G262" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H262" s="19"/>
       <c r="I262" s="19"/>
@@ -6887,19 +6878,19 @@
         <v>8</v>
       </c>
       <c r="C263" s="16" t="s">
-        <v>77</v>
+        <v>31</v>
       </c>
       <c r="D263" s="17" t="s">
-        <v>78</v>
+        <v>32</v>
       </c>
       <c r="E263" s="16" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="F263" s="18">
-        <v>29509</v>
+        <v>23958</v>
       </c>
       <c r="G263" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H263" s="19"/>
       <c r="I263" s="19"/>
@@ -6910,98 +6901,75 @@
         <v>8</v>
       </c>
       <c r="C264" s="16" t="s">
-        <v>77</v>
+        <v>24</v>
       </c>
       <c r="D264" s="17" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="E264" s="16" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="F264" s="18">
-        <v>29509</v>
+        <v>23958</v>
       </c>
       <c r="G264" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H264" s="19"/>
       <c r="I264" s="19"/>
       <c r="J264" s="20"/>
     </row>
     <row r="265" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B265" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C265" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="D265" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="E265" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="F265" s="18">
-        <v>29509</v>
-      </c>
-      <c r="G265" s="18">
-        <v>737717</v>
-      </c>
-      <c r="H265" s="19"/>
-      <c r="I265" s="19"/>
-      <c r="J265" s="20"/>
-    </row>
-    <row r="266" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B266" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C266" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="D266" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="E266" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="F266" s="24">
-        <v>29509</v>
-      </c>
-      <c r="G266" s="24">
-        <v>737717</v>
-      </c>
-      <c r="H266" s="25"/>
-      <c r="I266" s="25"/>
-      <c r="J266" s="26"/>
+      <c r="B265" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C265" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="D265" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="E265" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="F265" s="24">
+        <v>23958</v>
+      </c>
+      <c r="G265" s="24">
+        <v>781242</v>
+      </c>
+      <c r="H265" s="25"/>
+      <c r="I265" s="25"/>
+      <c r="J265" s="26"/>
+    </row>
+    <row r="270" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B270" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="C270" s="32"/>
+      <c r="H270" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I270" s="1"/>
+      <c r="J270" s="1"/>
     </row>
     <row r="271" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B271" s="32" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C271" s="32"/>
       <c r="H271" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I271" s="1"/>
       <c r="J271" s="1"/>
     </row>
-    <row r="272" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B272" s="32" t="s">
-        <v>87</v>
-      </c>
-      <c r="C272" s="32"/>
-      <c r="H272" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="I272" s="1"/>
-      <c r="J272" s="1"/>
-    </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B272:C272"/>
     <mergeCell ref="B271:C271"/>
-    <mergeCell ref="H272:J272"/>
+    <mergeCell ref="B270:C270"/>
     <mergeCell ref="H271:J271"/>
+    <mergeCell ref="H270:J270"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
